--- a/Gedcom_project.xlsx
+++ b/Gedcom_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swara\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\OneDrive\Documents\Study_Docs\Agile_Methods\Group Project\CS555-WS3-TM02-2022FALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFCEB96-F6CA-4D21-A2A8-12A4D4C1302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972216C4-737A-4C8B-A883-FAF883D64C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
   <si>
     <t>Initials</t>
   </si>
@@ -627,9 +627,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>swarajsingpatil@gmail.conSwarajsingPatil</t>
-  </si>
-  <si>
     <t>SSS</t>
   </si>
   <si>
@@ -645,25 +642,58 @@
     <t>Swarajsing Anandsing</t>
   </si>
   <si>
-    <t>shoaibshah2400@gmail.com-</t>
+    <t>Swarajsing</t>
   </si>
   <si>
-    <r>
-      <t>Shoaib-byte</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
+    <t>CS555-WS3-TM02-2022FALL</t>
   </si>
   <si>
-    <t>Swarajsing</t>
+    <t>Sangle</t>
+  </si>
+  <si>
+    <t>PJS</t>
+  </si>
+  <si>
+    <t>Pratik Jitendra</t>
+  </si>
+  <si>
+    <t>psangle@Stevens.edu</t>
+  </si>
+  <si>
+    <t>swarajsingpatil@gmail.com</t>
+  </si>
+  <si>
+    <t>SwarajsingPatil</t>
+  </si>
+  <si>
+    <t>shoaibshah2400@gmail.com</t>
+  </si>
+  <si>
+    <t>grindo26</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rucha </t>
+  </si>
+  <si>
+    <t>Tirodkar</t>
+  </si>
+  <si>
+    <t>Rucha1999</t>
+  </si>
+  <si>
+    <t>Pratik</t>
+  </si>
+  <si>
+    <t>Est Size(Lines)</t>
+  </si>
+  <si>
+    <t>Est Time(Minutes)</t>
+  </si>
+  <si>
+    <t>Shoaib-byte</t>
   </si>
 </sst>
 </file>
@@ -674,7 +704,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -710,13 +740,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -759,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,7 +809,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -941,7 +965,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-JE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261410492"/>
@@ -1005,7 +1029,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-JE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="751384951"/>
@@ -1143,7 +1167,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-JE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2018318546"/>
@@ -1207,7 +1231,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-JE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1881607879"/>
@@ -2051,16 +2075,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="5" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
     <col min="6" max="26" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2107,45 +2132,66 @@
         <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>195</v>
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2154,7 +2200,9 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3151,7 +3199,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{19FE6E2D-4958-4143-BC20-95C55EBFF258}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{BE58D3F2-3A6C-421A-904F-28BE0D0F4C03}"/>
-    <hyperlink ref="E3" r:id="rId3" tooltip="View all commits by Shoaib-byte" display="https://github.com/grindo26/CS555-WS3-TM02-2022FALL/commits?author=Shoaib-byte" xr:uid="{5248C7F0-6F3C-48D1-86D6-1F087701599F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{0E7338DE-1241-4B1F-8F5A-86C57E2C2722}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3163,7 +3211,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12708,21 +12756,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="26" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12740,10 +12788,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>36</v>
@@ -12807,7 +12855,7 @@
         <v>160</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>193</v>
@@ -12828,7 +12876,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>193</v>
@@ -12842,13 +12890,45 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gedcom_project.xlsx
+++ b/Gedcom_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\OneDrive\Documents\Study_Docs\Agile_Methods\Group Project\CS555-WS3-TM02-2022FALL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rucha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972216C4-737A-4C8B-A883-FAF883D64C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981B16C-51D3-45CF-8DDB-AAA37532B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="221">
   <si>
     <t>Initials</t>
   </si>
@@ -603,9 +603,6 @@
     <t>parents and children age gap shouldn’t be bigger</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unique name and birthdate</t>
-  </si>
-  <si>
     <t>list current users relation with selected user</t>
   </si>
   <si>
@@ -695,6 +692,18 @@
   <si>
     <t>Shoaib-byte</t>
   </si>
+  <si>
+    <t>rtirodka@stevens.edu</t>
+  </si>
+  <si>
+    <t>Unique name and birthdate</t>
+  </si>
+  <si>
+    <t>Validate divorce date before marriage dates</t>
+  </si>
+  <si>
+    <t>Rucha</t>
+  </si>
 </sst>
 </file>
 
@@ -704,7 +713,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -744,11 +753,31 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +788,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD6E3BC"/>
         <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -782,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,15 +837,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2076,7 +2139,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2090,22 +2153,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2128,80 +2191,100 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3200,9 +3283,10 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{19FE6E2D-4958-4143-BC20-95C55EBFF258}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{BE58D3F2-3A6C-421A-904F-28BE0D0F4C03}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{0E7338DE-1241-4B1F-8F5A-86C57E2C2722}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{E087EDCA-FEFB-4063-8898-6B897B1B3026}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3210,316 +3294,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C8"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
-    <col min="6" max="26" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="22" customWidth="1"/>
+    <col min="6" max="26" width="10.6328125" style="22" customWidth="1"/>
+    <col min="27" max="16384" width="14.36328125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="22" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3537,958 +3622,958 @@
     <row r="46" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -12757,4163 +12842,4193 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.6328125" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="14.36328125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="17">
+        <v>100</v>
+      </c>
+      <c r="F2" s="17">
+        <v>360</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E3" s="17">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
-        <v>360</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="17">
+        <v>420</v>
+      </c>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E4" s="15">
+        <v>200</v>
+      </c>
+      <c r="F4" s="15">
+        <v>540</v>
+      </c>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="15">
+        <v>200</v>
+      </c>
+      <c r="F5" s="15">
+        <v>420</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="15">
+        <v>120</v>
+      </c>
+      <c r="F6" s="15">
+        <v>600</v>
+      </c>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="15">
+        <v>50</v>
+      </c>
+      <c r="F7" s="15">
+        <v>200</v>
+      </c>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="17">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
-        <v>420</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="F8" s="17">
         <v>200</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4">
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="17">
         <v>200</v>
       </c>
-      <c r="F4">
-        <v>540</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>420</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="I12" s="4"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="25"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="I15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="I17" s="4"/>
+      <c r="B17" s="20"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="20"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="20"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="25"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="20"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="20"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="20"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="20"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="20"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="B27" s="20"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="I28" s="4"/>
+      <c r="B28" s="20"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="I29" s="4"/>
+      <c r="B29" s="20"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="B30" s="20"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="I31" s="4"/>
+      <c r="B31" s="20"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="I32" s="4"/>
+      <c r="B32" s="20"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="20"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="20"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="I35" s="4"/>
+      <c r="B35" s="20"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="I36" s="4"/>
+      <c r="B36" s="20"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="20"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="I43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="20"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="B45" s="20"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="20"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="20"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="20"/>
+      <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="I49" s="4"/>
+      <c r="B49" s="20"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="I51" s="4"/>
+      <c r="B51" s="20"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="I52" s="4"/>
+      <c r="B52" s="20"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="I53" s="4"/>
+      <c r="B53" s="20"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="I54" s="28"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="I55" s="4"/>
+      <c r="B55" s="20"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="20"/>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="I57" s="4"/>
+      <c r="B57" s="20"/>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="I58" s="4"/>
+      <c r="B58" s="20"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="I59" s="4"/>
+      <c r="B59" s="20"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="I60" s="4"/>
+      <c r="B60" s="20"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="I61" s="4"/>
+      <c r="B61" s="20"/>
+      <c r="I61" s="28"/>
     </row>
     <row r="62" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="I62" s="4"/>
+      <c r="B62" s="20"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="B63" s="20"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
-      <c r="I64" s="4"/>
+      <c r="B64" s="20"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3"/>
-      <c r="I65" s="4"/>
+      <c r="B65" s="20"/>
+      <c r="I65" s="28"/>
     </row>
     <row r="66" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
-      <c r="I66" s="4"/>
+      <c r="B66" s="20"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="I67" s="4"/>
+      <c r="B67" s="20"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
-      <c r="I68" s="4"/>
+      <c r="B68" s="20"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="I69" s="4"/>
+      <c r="B69" s="20"/>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="I70" s="4"/>
+      <c r="B70" s="20"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-      <c r="I71" s="4"/>
+      <c r="B71" s="20"/>
+      <c r="I71" s="28"/>
     </row>
     <row r="72" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-      <c r="I72" s="4"/>
+      <c r="B72" s="20"/>
+      <c r="I72" s="28"/>
     </row>
     <row r="73" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3"/>
-      <c r="I73" s="4"/>
+      <c r="B73" s="20"/>
+      <c r="I73" s="28"/>
     </row>
     <row r="74" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="3"/>
-      <c r="I74" s="4"/>
+      <c r="B74" s="20"/>
+      <c r="I74" s="28"/>
     </row>
     <row r="75" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="3"/>
-      <c r="I75" s="4"/>
+      <c r="B75" s="20"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="3"/>
-      <c r="I76" s="4"/>
+      <c r="B76" s="20"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="3"/>
-      <c r="I77" s="4"/>
+      <c r="B77" s="20"/>
+      <c r="I77" s="28"/>
     </row>
     <row r="78" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="3"/>
-      <c r="I78" s="4"/>
+      <c r="B78" s="20"/>
+      <c r="I78" s="28"/>
     </row>
     <row r="79" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3"/>
-      <c r="I79" s="4"/>
+      <c r="B79" s="20"/>
+      <c r="I79" s="28"/>
     </row>
     <row r="80" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="3"/>
-      <c r="I80" s="4"/>
+      <c r="B80" s="20"/>
+      <c r="I80" s="28"/>
     </row>
     <row r="81" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="3"/>
-      <c r="I81" s="4"/>
+      <c r="B81" s="20"/>
+      <c r="I81" s="28"/>
     </row>
     <row r="82" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="3"/>
-      <c r="I82" s="4"/>
+      <c r="B82" s="20"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="3"/>
-      <c r="I83" s="4"/>
+      <c r="B83" s="20"/>
+      <c r="I83" s="28"/>
     </row>
     <row r="84" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="3"/>
-      <c r="I84" s="4"/>
+      <c r="B84" s="20"/>
+      <c r="I84" s="28"/>
     </row>
     <row r="85" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="3"/>
-      <c r="I85" s="4"/>
+      <c r="B85" s="20"/>
+      <c r="I85" s="28"/>
     </row>
     <row r="86" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="3"/>
-      <c r="I86" s="4"/>
+      <c r="B86" s="20"/>
+      <c r="I86" s="28"/>
     </row>
     <row r="87" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3"/>
-      <c r="I87" s="4"/>
+      <c r="B87" s="20"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="3"/>
-      <c r="I88" s="4"/>
+      <c r="B88" s="20"/>
+      <c r="I88" s="28"/>
     </row>
     <row r="89" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
-      <c r="I89" s="4"/>
+      <c r="B89" s="20"/>
+      <c r="I89" s="28"/>
     </row>
     <row r="90" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="3"/>
-      <c r="I90" s="4"/>
+      <c r="B90" s="20"/>
+      <c r="I90" s="28"/>
     </row>
     <row r="91" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="3"/>
-      <c r="I91" s="4"/>
+      <c r="B91" s="20"/>
+      <c r="I91" s="28"/>
     </row>
     <row r="92" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="3"/>
-      <c r="I92" s="4"/>
+      <c r="B92" s="20"/>
+      <c r="I92" s="28"/>
     </row>
     <row r="93" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="3"/>
-      <c r="I93" s="4"/>
+      <c r="B93" s="20"/>
+      <c r="I93" s="28"/>
     </row>
     <row r="94" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="3"/>
-      <c r="I94" s="4"/>
+      <c r="B94" s="20"/>
+      <c r="I94" s="28"/>
     </row>
     <row r="95" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
-      <c r="I95" s="4"/>
+      <c r="B95" s="20"/>
+      <c r="I95" s="28"/>
     </row>
     <row r="96" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="3"/>
-      <c r="I96" s="4"/>
+      <c r="B96" s="20"/>
+      <c r="I96" s="28"/>
     </row>
     <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
-      <c r="I97" s="4"/>
+      <c r="B97" s="20"/>
+      <c r="I97" s="28"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="3"/>
-      <c r="I98" s="4"/>
+      <c r="B98" s="20"/>
+      <c r="I98" s="28"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
-      <c r="I99" s="4"/>
+      <c r="B99" s="20"/>
+      <c r="I99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="3"/>
-      <c r="I100" s="4"/>
+      <c r="B100" s="20"/>
+      <c r="I100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="3"/>
-      <c r="I101" s="4"/>
+      <c r="B101" s="20"/>
+      <c r="I101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="3"/>
-      <c r="I102" s="4"/>
+      <c r="B102" s="20"/>
+      <c r="I102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="3"/>
-      <c r="I103" s="4"/>
+      <c r="B103" s="20"/>
+      <c r="I103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="3"/>
-      <c r="I104" s="4"/>
+      <c r="B104" s="20"/>
+      <c r="I104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="3"/>
-      <c r="I105" s="4"/>
+      <c r="B105" s="20"/>
+      <c r="I105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="3"/>
-      <c r="I106" s="4"/>
+      <c r="B106" s="20"/>
+      <c r="I106" s="28"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
-      <c r="I107" s="4"/>
+      <c r="B107" s="20"/>
+      <c r="I107" s="28"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-      <c r="I108" s="4"/>
+      <c r="B108" s="20"/>
+      <c r="I108" s="28"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
-      <c r="I109" s="4"/>
+      <c r="B109" s="20"/>
+      <c r="I109" s="28"/>
     </row>
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="I110" s="4"/>
+      <c r="B110" s="20"/>
+      <c r="I110" s="28"/>
     </row>
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
-      <c r="I111" s="4"/>
+      <c r="B111" s="20"/>
+      <c r="I111" s="28"/>
     </row>
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
-      <c r="I112" s="4"/>
+      <c r="B112" s="20"/>
+      <c r="I112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
-      <c r="I113" s="4"/>
+      <c r="B113" s="20"/>
+      <c r="I113" s="28"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="3"/>
-      <c r="I114" s="4"/>
+      <c r="B114" s="20"/>
+      <c r="I114" s="28"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
-      <c r="I115" s="4"/>
+      <c r="B115" s="20"/>
+      <c r="I115" s="28"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="3"/>
-      <c r="I116" s="4"/>
+      <c r="B116" s="20"/>
+      <c r="I116" s="28"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
-      <c r="I117" s="4"/>
+      <c r="B117" s="20"/>
+      <c r="I117" s="28"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="3"/>
-      <c r="I118" s="4"/>
+      <c r="B118" s="20"/>
+      <c r="I118" s="28"/>
     </row>
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
-      <c r="I119" s="4"/>
+      <c r="B119" s="20"/>
+      <c r="I119" s="28"/>
     </row>
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="3"/>
-      <c r="I120" s="4"/>
+      <c r="B120" s="20"/>
+      <c r="I120" s="28"/>
     </row>
     <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="3"/>
-      <c r="I121" s="4"/>
+      <c r="B121" s="20"/>
+      <c r="I121" s="28"/>
     </row>
     <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="3"/>
-      <c r="I122" s="4"/>
+      <c r="B122" s="20"/>
+      <c r="I122" s="28"/>
     </row>
     <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="3"/>
-      <c r="I123" s="4"/>
+      <c r="B123" s="20"/>
+      <c r="I123" s="28"/>
     </row>
     <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="3"/>
-      <c r="I124" s="4"/>
+      <c r="B124" s="20"/>
+      <c r="I124" s="28"/>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="3"/>
-      <c r="I125" s="4"/>
+      <c r="B125" s="20"/>
+      <c r="I125" s="28"/>
     </row>
     <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
-      <c r="I126" s="4"/>
+      <c r="B126" s="20"/>
+      <c r="I126" s="28"/>
     </row>
     <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
-      <c r="I127" s="4"/>
+      <c r="B127" s="20"/>
+      <c r="I127" s="28"/>
     </row>
     <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
-      <c r="I128" s="4"/>
+      <c r="B128" s="20"/>
+      <c r="I128" s="28"/>
     </row>
     <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="3"/>
-      <c r="I129" s="4"/>
+      <c r="B129" s="20"/>
+      <c r="I129" s="28"/>
     </row>
     <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
-      <c r="I130" s="4"/>
+      <c r="B130" s="20"/>
+      <c r="I130" s="28"/>
     </row>
     <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="3"/>
-      <c r="I131" s="4"/>
+      <c r="B131" s="20"/>
+      <c r="I131" s="28"/>
     </row>
     <row r="132" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
-      <c r="I132" s="4"/>
+      <c r="B132" s="20"/>
+      <c r="I132" s="28"/>
     </row>
     <row r="133" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="3"/>
-      <c r="I133" s="4"/>
+      <c r="B133" s="20"/>
+      <c r="I133" s="28"/>
     </row>
     <row r="134" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="3"/>
-      <c r="I134" s="4"/>
+      <c r="B134" s="20"/>
+      <c r="I134" s="28"/>
     </row>
     <row r="135" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="3"/>
-      <c r="I135" s="4"/>
+      <c r="B135" s="20"/>
+      <c r="I135" s="28"/>
     </row>
     <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="3"/>
-      <c r="I136" s="4"/>
+      <c r="B136" s="20"/>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="3"/>
-      <c r="I137" s="4"/>
+      <c r="B137" s="20"/>
+      <c r="I137" s="28"/>
     </row>
     <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="3"/>
-      <c r="I138" s="4"/>
+      <c r="B138" s="20"/>
+      <c r="I138" s="28"/>
     </row>
     <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="3"/>
-      <c r="I139" s="4"/>
+      <c r="B139" s="20"/>
+      <c r="I139" s="28"/>
     </row>
     <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="3"/>
-      <c r="I140" s="4"/>
+      <c r="B140" s="20"/>
+      <c r="I140" s="28"/>
     </row>
     <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="3"/>
-      <c r="I141" s="4"/>
+      <c r="B141" s="20"/>
+      <c r="I141" s="28"/>
     </row>
     <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="3"/>
-      <c r="I142" s="4"/>
+      <c r="B142" s="20"/>
+      <c r="I142" s="28"/>
     </row>
     <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="3"/>
-      <c r="I143" s="4"/>
+      <c r="B143" s="20"/>
+      <c r="I143" s="28"/>
     </row>
     <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="3"/>
-      <c r="I144" s="4"/>
+      <c r="B144" s="20"/>
+      <c r="I144" s="28"/>
     </row>
     <row r="145" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="3"/>
-      <c r="I145" s="4"/>
+      <c r="B145" s="20"/>
+      <c r="I145" s="28"/>
     </row>
     <row r="146" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="3"/>
-      <c r="I146" s="4"/>
+      <c r="B146" s="20"/>
+      <c r="I146" s="28"/>
     </row>
     <row r="147" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="3"/>
-      <c r="I147" s="4"/>
+      <c r="B147" s="20"/>
+      <c r="I147" s="28"/>
     </row>
     <row r="148" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="3"/>
-      <c r="I148" s="4"/>
+      <c r="B148" s="20"/>
+      <c r="I148" s="28"/>
     </row>
     <row r="149" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="3"/>
-      <c r="I149" s="4"/>
+      <c r="B149" s="20"/>
+      <c r="I149" s="28"/>
     </row>
     <row r="150" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="3"/>
-      <c r="I150" s="4"/>
+      <c r="B150" s="20"/>
+      <c r="I150" s="28"/>
     </row>
     <row r="151" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="3"/>
-      <c r="I151" s="4"/>
+      <c r="B151" s="20"/>
+      <c r="I151" s="28"/>
     </row>
     <row r="152" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="3"/>
-      <c r="I152" s="4"/>
+      <c r="B152" s="20"/>
+      <c r="I152" s="28"/>
     </row>
     <row r="153" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
-      <c r="I153" s="4"/>
+      <c r="B153" s="20"/>
+      <c r="I153" s="28"/>
     </row>
     <row r="154" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
-      <c r="I154" s="4"/>
+      <c r="B154" s="20"/>
+      <c r="I154" s="28"/>
     </row>
     <row r="155" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
-      <c r="I155" s="4"/>
+      <c r="B155" s="20"/>
+      <c r="I155" s="28"/>
     </row>
     <row r="156" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="3"/>
-      <c r="I156" s="4"/>
+      <c r="B156" s="20"/>
+      <c r="I156" s="28"/>
     </row>
     <row r="157" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="3"/>
-      <c r="I157" s="4"/>
+      <c r="B157" s="20"/>
+      <c r="I157" s="28"/>
     </row>
     <row r="158" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
-      <c r="I158" s="4"/>
+      <c r="B158" s="20"/>
+      <c r="I158" s="28"/>
     </row>
     <row r="159" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="3"/>
-      <c r="I159" s="4"/>
+      <c r="B159" s="20"/>
+      <c r="I159" s="28"/>
     </row>
     <row r="160" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="3"/>
-      <c r="I160" s="4"/>
+      <c r="B160" s="20"/>
+      <c r="I160" s="28"/>
     </row>
     <row r="161" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="3"/>
-      <c r="I161" s="4"/>
+      <c r="B161" s="20"/>
+      <c r="I161" s="28"/>
     </row>
     <row r="162" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="3"/>
-      <c r="I162" s="4"/>
+      <c r="B162" s="20"/>
+      <c r="I162" s="28"/>
     </row>
     <row r="163" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="3"/>
-      <c r="I163" s="4"/>
+      <c r="B163" s="20"/>
+      <c r="I163" s="28"/>
     </row>
     <row r="164" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="3"/>
-      <c r="I164" s="4"/>
+      <c r="B164" s="20"/>
+      <c r="I164" s="28"/>
     </row>
     <row r="165" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="3"/>
-      <c r="I165" s="4"/>
+      <c r="B165" s="20"/>
+      <c r="I165" s="28"/>
     </row>
     <row r="166" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="3"/>
-      <c r="I166" s="4"/>
+      <c r="B166" s="20"/>
+      <c r="I166" s="28"/>
     </row>
     <row r="167" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="3"/>
-      <c r="I167" s="4"/>
+      <c r="B167" s="20"/>
+      <c r="I167" s="28"/>
     </row>
     <row r="168" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="3"/>
-      <c r="I168" s="4"/>
+      <c r="B168" s="20"/>
+      <c r="I168" s="28"/>
     </row>
     <row r="169" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="3"/>
-      <c r="I169" s="4"/>
+      <c r="B169" s="20"/>
+      <c r="I169" s="28"/>
     </row>
     <row r="170" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="3"/>
-      <c r="I170" s="4"/>
+      <c r="B170" s="20"/>
+      <c r="I170" s="28"/>
     </row>
     <row r="171" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="3"/>
-      <c r="I171" s="4"/>
+      <c r="B171" s="20"/>
+      <c r="I171" s="28"/>
     </row>
     <row r="172" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="3"/>
-      <c r="I172" s="4"/>
+      <c r="B172" s="20"/>
+      <c r="I172" s="28"/>
     </row>
     <row r="173" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="3"/>
-      <c r="I173" s="4"/>
+      <c r="B173" s="20"/>
+      <c r="I173" s="28"/>
     </row>
     <row r="174" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="3"/>
-      <c r="I174" s="4"/>
+      <c r="B174" s="20"/>
+      <c r="I174" s="28"/>
     </row>
     <row r="175" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="3"/>
-      <c r="I175" s="4"/>
+      <c r="B175" s="20"/>
+      <c r="I175" s="28"/>
     </row>
     <row r="176" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
-      <c r="I176" s="4"/>
+      <c r="B176" s="20"/>
+      <c r="I176" s="28"/>
     </row>
     <row r="177" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="3"/>
-      <c r="I177" s="4"/>
+      <c r="B177" s="20"/>
+      <c r="I177" s="28"/>
     </row>
     <row r="178" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="3"/>
-      <c r="I178" s="4"/>
+      <c r="B178" s="20"/>
+      <c r="I178" s="28"/>
     </row>
     <row r="179" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="3"/>
-      <c r="I179" s="4"/>
+      <c r="B179" s="20"/>
+      <c r="I179" s="28"/>
     </row>
     <row r="180" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="3"/>
-      <c r="I180" s="4"/>
+      <c r="B180" s="20"/>
+      <c r="I180" s="28"/>
     </row>
     <row r="181" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="3"/>
-      <c r="I181" s="4"/>
+      <c r="B181" s="20"/>
+      <c r="I181" s="28"/>
     </row>
     <row r="182" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="3"/>
-      <c r="I182" s="4"/>
+      <c r="B182" s="20"/>
+      <c r="I182" s="28"/>
     </row>
     <row r="183" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="3"/>
-      <c r="I183" s="4"/>
+      <c r="B183" s="20"/>
+      <c r="I183" s="28"/>
     </row>
     <row r="184" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="3"/>
-      <c r="I184" s="4"/>
+      <c r="B184" s="20"/>
+      <c r="I184" s="28"/>
     </row>
     <row r="185" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="3"/>
-      <c r="I185" s="4"/>
+      <c r="B185" s="20"/>
+      <c r="I185" s="28"/>
     </row>
     <row r="186" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="3"/>
-      <c r="I186" s="4"/>
+      <c r="B186" s="20"/>
+      <c r="I186" s="28"/>
     </row>
     <row r="187" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="3"/>
-      <c r="I187" s="4"/>
+      <c r="B187" s="20"/>
+      <c r="I187" s="28"/>
     </row>
     <row r="188" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="3"/>
-      <c r="I188" s="4"/>
+      <c r="B188" s="20"/>
+      <c r="I188" s="28"/>
     </row>
     <row r="189" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="3"/>
-      <c r="I189" s="4"/>
+      <c r="B189" s="20"/>
+      <c r="I189" s="28"/>
     </row>
     <row r="190" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="3"/>
-      <c r="I190" s="4"/>
+      <c r="B190" s="20"/>
+      <c r="I190" s="28"/>
     </row>
     <row r="191" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="3"/>
-      <c r="I191" s="4"/>
+      <c r="B191" s="20"/>
+      <c r="I191" s="28"/>
     </row>
     <row r="192" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="3"/>
-      <c r="I192" s="4"/>
+      <c r="B192" s="20"/>
+      <c r="I192" s="28"/>
     </row>
     <row r="193" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="3"/>
-      <c r="I193" s="4"/>
+      <c r="B193" s="20"/>
+      <c r="I193" s="28"/>
     </row>
     <row r="194" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="3"/>
-      <c r="I194" s="4"/>
+      <c r="B194" s="20"/>
+      <c r="I194" s="28"/>
     </row>
     <row r="195" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="3"/>
-      <c r="I195" s="4"/>
+      <c r="B195" s="20"/>
+      <c r="I195" s="28"/>
     </row>
     <row r="196" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="3"/>
-      <c r="I196" s="4"/>
+      <c r="B196" s="20"/>
+      <c r="I196" s="28"/>
     </row>
     <row r="197" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="3"/>
-      <c r="I197" s="4"/>
+      <c r="B197" s="20"/>
+      <c r="I197" s="28"/>
     </row>
     <row r="198" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="3"/>
-      <c r="I198" s="4"/>
+      <c r="B198" s="20"/>
+      <c r="I198" s="28"/>
     </row>
     <row r="199" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="3"/>
-      <c r="I199" s="4"/>
+      <c r="B199" s="20"/>
+      <c r="I199" s="28"/>
     </row>
     <row r="200" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="3"/>
-      <c r="I200" s="4"/>
+      <c r="B200" s="20"/>
+      <c r="I200" s="28"/>
     </row>
     <row r="201" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="3"/>
-      <c r="I201" s="4"/>
+      <c r="B201" s="20"/>
+      <c r="I201" s="28"/>
     </row>
     <row r="202" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="3"/>
-      <c r="I202" s="4"/>
+      <c r="B202" s="20"/>
+      <c r="I202" s="28"/>
     </row>
     <row r="203" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="3"/>
-      <c r="I203" s="4"/>
+      <c r="B203" s="20"/>
+      <c r="I203" s="28"/>
     </row>
     <row r="204" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="3"/>
-      <c r="I204" s="4"/>
+      <c r="B204" s="20"/>
+      <c r="I204" s="28"/>
     </row>
     <row r="205" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="3"/>
-      <c r="I205" s="4"/>
+      <c r="B205" s="20"/>
+      <c r="I205" s="28"/>
     </row>
     <row r="206" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="3"/>
-      <c r="I206" s="4"/>
+      <c r="B206" s="20"/>
+      <c r="I206" s="28"/>
     </row>
     <row r="207" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="3"/>
-      <c r="I207" s="4"/>
+      <c r="B207" s="20"/>
+      <c r="I207" s="28"/>
     </row>
     <row r="208" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="3"/>
-      <c r="I208" s="4"/>
+      <c r="B208" s="20"/>
+      <c r="I208" s="28"/>
     </row>
     <row r="209" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="3"/>
-      <c r="I209" s="4"/>
+      <c r="B209" s="20"/>
+      <c r="I209" s="28"/>
     </row>
     <row r="210" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="3"/>
-      <c r="I210" s="4"/>
+      <c r="B210" s="20"/>
+      <c r="I210" s="28"/>
     </row>
     <row r="211" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="3"/>
-      <c r="I211" s="4"/>
+      <c r="B211" s="20"/>
+      <c r="I211" s="28"/>
     </row>
     <row r="212" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="3"/>
-      <c r="I212" s="4"/>
+      <c r="B212" s="20"/>
+      <c r="I212" s="28"/>
     </row>
     <row r="213" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="3"/>
-      <c r="I213" s="4"/>
+      <c r="B213" s="20"/>
+      <c r="I213" s="28"/>
     </row>
     <row r="214" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="3"/>
-      <c r="I214" s="4"/>
+      <c r="B214" s="20"/>
+      <c r="I214" s="28"/>
     </row>
     <row r="215" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="3"/>
-      <c r="I215" s="4"/>
+      <c r="B215" s="20"/>
+      <c r="I215" s="28"/>
     </row>
     <row r="216" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="3"/>
-      <c r="I216" s="4"/>
+      <c r="B216" s="20"/>
+      <c r="I216" s="28"/>
     </row>
     <row r="217" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="3"/>
-      <c r="I217" s="4"/>
+      <c r="B217" s="20"/>
+      <c r="I217" s="28"/>
     </row>
     <row r="218" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="3"/>
-      <c r="I218" s="4"/>
+      <c r="B218" s="20"/>
+      <c r="I218" s="28"/>
     </row>
     <row r="219" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="3"/>
-      <c r="I219" s="4"/>
+      <c r="B219" s="20"/>
+      <c r="I219" s="28"/>
     </row>
     <row r="220" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="3"/>
-      <c r="I220" s="4"/>
+      <c r="B220" s="20"/>
+      <c r="I220" s="28"/>
     </row>
     <row r="221" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="3"/>
-      <c r="I221" s="4"/>
+      <c r="B221" s="20"/>
+      <c r="I221" s="28"/>
     </row>
     <row r="222" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="3"/>
-      <c r="I222" s="4"/>
+      <c r="B222" s="20"/>
+      <c r="I222" s="28"/>
     </row>
     <row r="223" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="3"/>
-      <c r="I223" s="4"/>
+      <c r="B223" s="20"/>
+      <c r="I223" s="28"/>
     </row>
     <row r="224" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="3"/>
-      <c r="I224" s="4"/>
+      <c r="B224" s="20"/>
+      <c r="I224" s="28"/>
     </row>
     <row r="225" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="3"/>
-      <c r="I225" s="4"/>
+      <c r="B225" s="20"/>
+      <c r="I225" s="28"/>
     </row>
     <row r="226" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="3"/>
-      <c r="I226" s="4"/>
+      <c r="B226" s="20"/>
+      <c r="I226" s="28"/>
     </row>
     <row r="227" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="3"/>
-      <c r="I227" s="4"/>
+      <c r="B227" s="20"/>
+      <c r="I227" s="28"/>
     </row>
     <row r="228" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="3"/>
-      <c r="I228" s="4"/>
+      <c r="B228" s="20"/>
+      <c r="I228" s="28"/>
     </row>
     <row r="229" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="3"/>
-      <c r="I229" s="4"/>
+      <c r="B229" s="20"/>
+      <c r="I229" s="28"/>
     </row>
     <row r="230" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="3"/>
-      <c r="I230" s="4"/>
+      <c r="B230" s="20"/>
+      <c r="I230" s="28"/>
     </row>
     <row r="231" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="3"/>
-      <c r="I231" s="4"/>
+      <c r="B231" s="20"/>
+      <c r="I231" s="28"/>
     </row>
     <row r="232" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="3"/>
-      <c r="I232" s="4"/>
+      <c r="B232" s="20"/>
+      <c r="I232" s="28"/>
     </row>
     <row r="233" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="3"/>
-      <c r="I233" s="4"/>
+      <c r="B233" s="20"/>
+      <c r="I233" s="28"/>
     </row>
     <row r="234" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="3"/>
-      <c r="I234" s="4"/>
+      <c r="B234" s="20"/>
+      <c r="I234" s="28"/>
     </row>
     <row r="235" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="3"/>
-      <c r="I235" s="4"/>
+      <c r="B235" s="20"/>
+      <c r="I235" s="28"/>
     </row>
     <row r="236" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="3"/>
-      <c r="I236" s="4"/>
+      <c r="B236" s="20"/>
+      <c r="I236" s="28"/>
     </row>
     <row r="237" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="3"/>
-      <c r="I237" s="4"/>
+      <c r="B237" s="20"/>
+      <c r="I237" s="28"/>
     </row>
     <row r="238" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="3"/>
-      <c r="I238" s="4"/>
+      <c r="B238" s="20"/>
+      <c r="I238" s="28"/>
     </row>
     <row r="239" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="3"/>
-      <c r="I239" s="4"/>
+      <c r="B239" s="20"/>
+      <c r="I239" s="28"/>
     </row>
     <row r="240" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="3"/>
-      <c r="I240" s="4"/>
+      <c r="B240" s="20"/>
+      <c r="I240" s="28"/>
     </row>
     <row r="241" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="3"/>
-      <c r="I241" s="4"/>
+      <c r="B241" s="20"/>
+      <c r="I241" s="28"/>
     </row>
     <row r="242" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="3"/>
-      <c r="I242" s="4"/>
+      <c r="B242" s="20"/>
+      <c r="I242" s="28"/>
     </row>
     <row r="243" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="3"/>
-      <c r="I243" s="4"/>
+      <c r="B243" s="20"/>
+      <c r="I243" s="28"/>
     </row>
     <row r="244" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="3"/>
-      <c r="I244" s="4"/>
+      <c r="B244" s="20"/>
+      <c r="I244" s="28"/>
     </row>
     <row r="245" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="3"/>
-      <c r="I245" s="4"/>
+      <c r="B245" s="20"/>
+      <c r="I245" s="28"/>
     </row>
     <row r="246" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="3"/>
-      <c r="I246" s="4"/>
+      <c r="B246" s="20"/>
+      <c r="I246" s="28"/>
     </row>
     <row r="247" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="3"/>
-      <c r="I247" s="4"/>
+      <c r="B247" s="20"/>
+      <c r="I247" s="28"/>
     </row>
     <row r="248" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="3"/>
-      <c r="I248" s="4"/>
+      <c r="B248" s="20"/>
+      <c r="I248" s="28"/>
     </row>
     <row r="249" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="3"/>
-      <c r="I249" s="4"/>
+      <c r="B249" s="20"/>
+      <c r="I249" s="28"/>
     </row>
     <row r="250" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="3"/>
-      <c r="I250" s="4"/>
+      <c r="B250" s="20"/>
+      <c r="I250" s="28"/>
     </row>
     <row r="251" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="3"/>
-      <c r="I251" s="4"/>
+      <c r="B251" s="20"/>
+      <c r="I251" s="28"/>
     </row>
     <row r="252" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="3"/>
-      <c r="I252" s="4"/>
+      <c r="B252" s="20"/>
+      <c r="I252" s="28"/>
     </row>
     <row r="253" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="3"/>
-      <c r="I253" s="4"/>
+      <c r="B253" s="20"/>
+      <c r="I253" s="28"/>
     </row>
     <row r="254" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
-      <c r="I254" s="4"/>
+      <c r="B254" s="20"/>
+      <c r="I254" s="28"/>
     </row>
     <row r="255" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
-      <c r="I255" s="4"/>
+      <c r="B255" s="20"/>
+      <c r="I255" s="28"/>
     </row>
     <row r="256" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="3"/>
-      <c r="I256" s="4"/>
+      <c r="B256" s="20"/>
+      <c r="I256" s="28"/>
     </row>
     <row r="257" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="3"/>
-      <c r="I257" s="4"/>
+      <c r="B257" s="20"/>
+      <c r="I257" s="28"/>
     </row>
     <row r="258" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="3"/>
-      <c r="I258" s="4"/>
+      <c r="B258" s="20"/>
+      <c r="I258" s="28"/>
     </row>
     <row r="259" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="3"/>
-      <c r="I259" s="4"/>
+      <c r="B259" s="20"/>
+      <c r="I259" s="28"/>
     </row>
     <row r="260" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="3"/>
-      <c r="I260" s="4"/>
+      <c r="B260" s="20"/>
+      <c r="I260" s="28"/>
     </row>
     <row r="261" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="3"/>
-      <c r="I261" s="4"/>
+      <c r="B261" s="20"/>
+      <c r="I261" s="28"/>
     </row>
     <row r="262" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="3"/>
-      <c r="I262" s="4"/>
+      <c r="B262" s="20"/>
+      <c r="I262" s="28"/>
     </row>
     <row r="263" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="3"/>
-      <c r="I263" s="4"/>
+      <c r="B263" s="20"/>
+      <c r="I263" s="28"/>
     </row>
     <row r="264" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="3"/>
-      <c r="I264" s="4"/>
+      <c r="B264" s="20"/>
+      <c r="I264" s="28"/>
     </row>
     <row r="265" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="3"/>
-      <c r="I265" s="4"/>
+      <c r="B265" s="20"/>
+      <c r="I265" s="28"/>
     </row>
     <row r="266" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="3"/>
-      <c r="I266" s="4"/>
+      <c r="B266" s="20"/>
+      <c r="I266" s="28"/>
     </row>
     <row r="267" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="3"/>
-      <c r="I267" s="4"/>
+      <c r="B267" s="20"/>
+      <c r="I267" s="28"/>
     </row>
     <row r="268" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="3"/>
-      <c r="I268" s="4"/>
+      <c r="B268" s="20"/>
+      <c r="I268" s="28"/>
     </row>
     <row r="269" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="3"/>
-      <c r="I269" s="4"/>
+      <c r="B269" s="20"/>
+      <c r="I269" s="28"/>
     </row>
     <row r="270" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="3"/>
-      <c r="I270" s="4"/>
+      <c r="B270" s="20"/>
+      <c r="I270" s="28"/>
     </row>
     <row r="271" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="3"/>
-      <c r="I271" s="4"/>
+      <c r="B271" s="20"/>
+      <c r="I271" s="28"/>
     </row>
     <row r="272" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="3"/>
-      <c r="I272" s="4"/>
+      <c r="B272" s="20"/>
+      <c r="I272" s="28"/>
     </row>
     <row r="273" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="3"/>
-      <c r="I273" s="4"/>
+      <c r="B273" s="20"/>
+      <c r="I273" s="28"/>
     </row>
     <row r="274" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="3"/>
-      <c r="I274" s="4"/>
+      <c r="B274" s="20"/>
+      <c r="I274" s="28"/>
     </row>
     <row r="275" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="3"/>
-      <c r="I275" s="4"/>
+      <c r="B275" s="20"/>
+      <c r="I275" s="28"/>
     </row>
     <row r="276" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="3"/>
-      <c r="I276" s="4"/>
+      <c r="B276" s="20"/>
+      <c r="I276" s="28"/>
     </row>
     <row r="277" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="3"/>
-      <c r="I277" s="4"/>
+      <c r="B277" s="20"/>
+      <c r="I277" s="28"/>
     </row>
     <row r="278" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="3"/>
-      <c r="I278" s="4"/>
+      <c r="B278" s="20"/>
+      <c r="I278" s="28"/>
     </row>
     <row r="279" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="3"/>
-      <c r="I279" s="4"/>
+      <c r="B279" s="20"/>
+      <c r="I279" s="28"/>
     </row>
     <row r="280" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="3"/>
-      <c r="I280" s="4"/>
+      <c r="B280" s="20"/>
+      <c r="I280" s="28"/>
     </row>
     <row r="281" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="3"/>
-      <c r="I281" s="4"/>
+      <c r="B281" s="20"/>
+      <c r="I281" s="28"/>
     </row>
     <row r="282" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="3"/>
-      <c r="I282" s="4"/>
+      <c r="B282" s="20"/>
+      <c r="I282" s="28"/>
     </row>
     <row r="283" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="3"/>
-      <c r="I283" s="4"/>
+      <c r="B283" s="20"/>
+      <c r="I283" s="28"/>
     </row>
     <row r="284" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="3"/>
-      <c r="I284" s="4"/>
+      <c r="B284" s="20"/>
+      <c r="I284" s="28"/>
     </row>
     <row r="285" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="3"/>
-      <c r="I285" s="4"/>
+      <c r="B285" s="20"/>
+      <c r="I285" s="28"/>
     </row>
     <row r="286" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="3"/>
-      <c r="I286" s="4"/>
+      <c r="B286" s="20"/>
+      <c r="I286" s="28"/>
     </row>
     <row r="287" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="3"/>
-      <c r="I287" s="4"/>
+      <c r="B287" s="20"/>
+      <c r="I287" s="28"/>
     </row>
     <row r="288" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="3"/>
-      <c r="I288" s="4"/>
+      <c r="B288" s="20"/>
+      <c r="I288" s="28"/>
     </row>
     <row r="289" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="3"/>
-      <c r="I289" s="4"/>
+      <c r="B289" s="20"/>
+      <c r="I289" s="28"/>
     </row>
     <row r="290" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="3"/>
-      <c r="I290" s="4"/>
+      <c r="B290" s="20"/>
+      <c r="I290" s="28"/>
     </row>
     <row r="291" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="3"/>
-      <c r="I291" s="4"/>
+      <c r="B291" s="20"/>
+      <c r="I291" s="28"/>
     </row>
     <row r="292" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="3"/>
-      <c r="I292" s="4"/>
+      <c r="B292" s="20"/>
+      <c r="I292" s="28"/>
     </row>
     <row r="293" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="3"/>
-      <c r="I293" s="4"/>
+      <c r="B293" s="20"/>
+      <c r="I293" s="28"/>
     </row>
     <row r="294" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="3"/>
-      <c r="I294" s="4"/>
+      <c r="B294" s="20"/>
+      <c r="I294" s="28"/>
     </row>
     <row r="295" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="3"/>
-      <c r="I295" s="4"/>
+      <c r="B295" s="20"/>
+      <c r="I295" s="28"/>
     </row>
     <row r="296" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="3"/>
-      <c r="I296" s="4"/>
+      <c r="B296" s="20"/>
+      <c r="I296" s="28"/>
     </row>
     <row r="297" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="3"/>
-      <c r="I297" s="4"/>
+      <c r="B297" s="20"/>
+      <c r="I297" s="28"/>
     </row>
     <row r="298" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="3"/>
-      <c r="I298" s="4"/>
+      <c r="B298" s="20"/>
+      <c r="I298" s="28"/>
     </row>
     <row r="299" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="3"/>
-      <c r="I299" s="4"/>
+      <c r="B299" s="20"/>
+      <c r="I299" s="28"/>
     </row>
     <row r="300" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="3"/>
-      <c r="I300" s="4"/>
+      <c r="B300" s="20"/>
+      <c r="I300" s="28"/>
     </row>
     <row r="301" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="3"/>
-      <c r="I301" s="4"/>
+      <c r="B301" s="20"/>
+      <c r="I301" s="28"/>
     </row>
     <row r="302" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="3"/>
-      <c r="I302" s="4"/>
+      <c r="B302" s="20"/>
+      <c r="I302" s="28"/>
     </row>
     <row r="303" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="3"/>
-      <c r="I303" s="4"/>
+      <c r="B303" s="20"/>
+      <c r="I303" s="28"/>
     </row>
     <row r="304" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="3"/>
-      <c r="I304" s="4"/>
+      <c r="B304" s="20"/>
+      <c r="I304" s="28"/>
     </row>
     <row r="305" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="3"/>
-      <c r="I305" s="4"/>
+      <c r="B305" s="20"/>
+      <c r="I305" s="28"/>
     </row>
     <row r="306" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="3"/>
-      <c r="I306" s="4"/>
+      <c r="B306" s="20"/>
+      <c r="I306" s="28"/>
     </row>
     <row r="307" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="3"/>
-      <c r="I307" s="4"/>
+      <c r="B307" s="20"/>
+      <c r="I307" s="28"/>
     </row>
     <row r="308" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="3"/>
-      <c r="I308" s="4"/>
+      <c r="B308" s="20"/>
+      <c r="I308" s="28"/>
     </row>
     <row r="309" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="3"/>
-      <c r="I309" s="4"/>
+      <c r="B309" s="20"/>
+      <c r="I309" s="28"/>
     </row>
     <row r="310" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="3"/>
-      <c r="I310" s="4"/>
+      <c r="B310" s="20"/>
+      <c r="I310" s="28"/>
     </row>
     <row r="311" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="3"/>
-      <c r="I311" s="4"/>
+      <c r="B311" s="20"/>
+      <c r="I311" s="28"/>
     </row>
     <row r="312" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="3"/>
-      <c r="I312" s="4"/>
+      <c r="B312" s="20"/>
+      <c r="I312" s="28"/>
     </row>
     <row r="313" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="3"/>
-      <c r="I313" s="4"/>
+      <c r="B313" s="20"/>
+      <c r="I313" s="28"/>
     </row>
     <row r="314" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="3"/>
-      <c r="I314" s="4"/>
+      <c r="B314" s="20"/>
+      <c r="I314" s="28"/>
     </row>
     <row r="315" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="3"/>
-      <c r="I315" s="4"/>
+      <c r="B315" s="20"/>
+      <c r="I315" s="28"/>
     </row>
     <row r="316" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="3"/>
-      <c r="I316" s="4"/>
+      <c r="B316" s="20"/>
+      <c r="I316" s="28"/>
     </row>
     <row r="317" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="3"/>
-      <c r="I317" s="4"/>
+      <c r="B317" s="20"/>
+      <c r="I317" s="28"/>
     </row>
     <row r="318" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="3"/>
-      <c r="I318" s="4"/>
+      <c r="B318" s="20"/>
+      <c r="I318" s="28"/>
     </row>
     <row r="319" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="3"/>
-      <c r="I319" s="4"/>
+      <c r="B319" s="20"/>
+      <c r="I319" s="28"/>
     </row>
     <row r="320" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="3"/>
-      <c r="I320" s="4"/>
+      <c r="B320" s="20"/>
+      <c r="I320" s="28"/>
     </row>
     <row r="321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="3"/>
-      <c r="I321" s="4"/>
+      <c r="B321" s="20"/>
+      <c r="I321" s="28"/>
     </row>
     <row r="322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="3"/>
-      <c r="I322" s="4"/>
+      <c r="B322" s="20"/>
+      <c r="I322" s="28"/>
     </row>
     <row r="323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="3"/>
-      <c r="I323" s="4"/>
+      <c r="B323" s="20"/>
+      <c r="I323" s="28"/>
     </row>
     <row r="324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="3"/>
-      <c r="I324" s="4"/>
+      <c r="B324" s="20"/>
+      <c r="I324" s="28"/>
     </row>
     <row r="325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="3"/>
-      <c r="I325" s="4"/>
+      <c r="B325" s="20"/>
+      <c r="I325" s="28"/>
     </row>
     <row r="326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="3"/>
-      <c r="I326" s="4"/>
+      <c r="B326" s="20"/>
+      <c r="I326" s="28"/>
     </row>
     <row r="327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="3"/>
-      <c r="I327" s="4"/>
+      <c r="B327" s="20"/>
+      <c r="I327" s="28"/>
     </row>
     <row r="328" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="3"/>
-      <c r="I328" s="4"/>
+      <c r="B328" s="20"/>
+      <c r="I328" s="28"/>
     </row>
     <row r="329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="3"/>
-      <c r="I329" s="4"/>
+      <c r="B329" s="20"/>
+      <c r="I329" s="28"/>
     </row>
     <row r="330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="3"/>
-      <c r="I330" s="4"/>
+      <c r="B330" s="20"/>
+      <c r="I330" s="28"/>
     </row>
     <row r="331" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="3"/>
-      <c r="I331" s="4"/>
+      <c r="B331" s="20"/>
+      <c r="I331" s="28"/>
     </row>
     <row r="332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="3"/>
-      <c r="I332" s="4"/>
+      <c r="B332" s="20"/>
+      <c r="I332" s="28"/>
     </row>
     <row r="333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="3"/>
-      <c r="I333" s="4"/>
+      <c r="B333" s="20"/>
+      <c r="I333" s="28"/>
     </row>
     <row r="334" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="3"/>
-      <c r="I334" s="4"/>
+      <c r="B334" s="20"/>
+      <c r="I334" s="28"/>
     </row>
     <row r="335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="3"/>
-      <c r="I335" s="4"/>
+      <c r="B335" s="20"/>
+      <c r="I335" s="28"/>
     </row>
     <row r="336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="3"/>
-      <c r="I336" s="4"/>
+      <c r="B336" s="20"/>
+      <c r="I336" s="28"/>
     </row>
     <row r="337" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="3"/>
-      <c r="I337" s="4"/>
+      <c r="B337" s="20"/>
+      <c r="I337" s="28"/>
     </row>
     <row r="338" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="3"/>
-      <c r="I338" s="4"/>
+      <c r="B338" s="20"/>
+      <c r="I338" s="28"/>
     </row>
     <row r="339" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="3"/>
-      <c r="I339" s="4"/>
+      <c r="B339" s="20"/>
+      <c r="I339" s="28"/>
     </row>
     <row r="340" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="3"/>
-      <c r="I340" s="4"/>
+      <c r="B340" s="20"/>
+      <c r="I340" s="28"/>
     </row>
     <row r="341" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="3"/>
-      <c r="I341" s="4"/>
+      <c r="B341" s="20"/>
+      <c r="I341" s="28"/>
     </row>
     <row r="342" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="3"/>
-      <c r="I342" s="4"/>
+      <c r="B342" s="20"/>
+      <c r="I342" s="28"/>
     </row>
     <row r="343" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="3"/>
-      <c r="I343" s="4"/>
+      <c r="B343" s="20"/>
+      <c r="I343" s="28"/>
     </row>
     <row r="344" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B344" s="3"/>
-      <c r="I344" s="4"/>
+      <c r="B344" s="20"/>
+      <c r="I344" s="28"/>
     </row>
     <row r="345" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="3"/>
-      <c r="I345" s="4"/>
+      <c r="B345" s="20"/>
+      <c r="I345" s="28"/>
     </row>
     <row r="346" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="3"/>
-      <c r="I346" s="4"/>
+      <c r="B346" s="20"/>
+      <c r="I346" s="28"/>
     </row>
     <row r="347" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="3"/>
-      <c r="I347" s="4"/>
+      <c r="B347" s="20"/>
+      <c r="I347" s="28"/>
     </row>
     <row r="348" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="3"/>
-      <c r="I348" s="4"/>
+      <c r="B348" s="20"/>
+      <c r="I348" s="28"/>
     </row>
     <row r="349" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="3"/>
-      <c r="I349" s="4"/>
+      <c r="B349" s="20"/>
+      <c r="I349" s="28"/>
     </row>
     <row r="350" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="3"/>
-      <c r="I350" s="4"/>
+      <c r="B350" s="20"/>
+      <c r="I350" s="28"/>
     </row>
     <row r="351" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="3"/>
-      <c r="I351" s="4"/>
+      <c r="B351" s="20"/>
+      <c r="I351" s="28"/>
     </row>
     <row r="352" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="3"/>
-      <c r="I352" s="4"/>
+      <c r="B352" s="20"/>
+      <c r="I352" s="28"/>
     </row>
     <row r="353" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="3"/>
-      <c r="I353" s="4"/>
+      <c r="B353" s="20"/>
+      <c r="I353" s="28"/>
     </row>
     <row r="354" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="3"/>
-      <c r="I354" s="4"/>
+      <c r="B354" s="20"/>
+      <c r="I354" s="28"/>
     </row>
     <row r="355" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="3"/>
-      <c r="I355" s="4"/>
+      <c r="B355" s="20"/>
+      <c r="I355" s="28"/>
     </row>
     <row r="356" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="3"/>
-      <c r="I356" s="4"/>
+      <c r="B356" s="20"/>
+      <c r="I356" s="28"/>
     </row>
     <row r="357" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="3"/>
-      <c r="I357" s="4"/>
+      <c r="B357" s="20"/>
+      <c r="I357" s="28"/>
     </row>
     <row r="358" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="3"/>
-      <c r="I358" s="4"/>
+      <c r="B358" s="20"/>
+      <c r="I358" s="28"/>
     </row>
     <row r="359" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="3"/>
-      <c r="I359" s="4"/>
+      <c r="B359" s="20"/>
+      <c r="I359" s="28"/>
     </row>
     <row r="360" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="3"/>
-      <c r="I360" s="4"/>
+      <c r="B360" s="20"/>
+      <c r="I360" s="28"/>
     </row>
     <row r="361" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="3"/>
-      <c r="I361" s="4"/>
+      <c r="B361" s="20"/>
+      <c r="I361" s="28"/>
     </row>
     <row r="362" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B362" s="3"/>
-      <c r="I362" s="4"/>
+      <c r="B362" s="20"/>
+      <c r="I362" s="28"/>
     </row>
     <row r="363" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="3"/>
-      <c r="I363" s="4"/>
+      <c r="B363" s="20"/>
+      <c r="I363" s="28"/>
     </row>
     <row r="364" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="3"/>
-      <c r="I364" s="4"/>
+      <c r="B364" s="20"/>
+      <c r="I364" s="28"/>
     </row>
     <row r="365" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="3"/>
-      <c r="I365" s="4"/>
+      <c r="B365" s="20"/>
+      <c r="I365" s="28"/>
     </row>
     <row r="366" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="3"/>
-      <c r="I366" s="4"/>
+      <c r="B366" s="20"/>
+      <c r="I366" s="28"/>
     </row>
     <row r="367" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="3"/>
-      <c r="I367" s="4"/>
+      <c r="B367" s="20"/>
+      <c r="I367" s="28"/>
     </row>
     <row r="368" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="3"/>
-      <c r="I368" s="4"/>
+      <c r="B368" s="20"/>
+      <c r="I368" s="28"/>
     </row>
     <row r="369" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="3"/>
-      <c r="I369" s="4"/>
+      <c r="B369" s="20"/>
+      <c r="I369" s="28"/>
     </row>
     <row r="370" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="3"/>
-      <c r="I370" s="4"/>
+      <c r="B370" s="20"/>
+      <c r="I370" s="28"/>
     </row>
     <row r="371" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="3"/>
-      <c r="I371" s="4"/>
+      <c r="B371" s="20"/>
+      <c r="I371" s="28"/>
     </row>
     <row r="372" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="3"/>
-      <c r="I372" s="4"/>
+      <c r="B372" s="20"/>
+      <c r="I372" s="28"/>
     </row>
     <row r="373" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="3"/>
-      <c r="I373" s="4"/>
+      <c r="B373" s="20"/>
+      <c r="I373" s="28"/>
     </row>
     <row r="374" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="3"/>
-      <c r="I374" s="4"/>
+      <c r="B374" s="20"/>
+      <c r="I374" s="28"/>
     </row>
     <row r="375" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="3"/>
-      <c r="I375" s="4"/>
+      <c r="B375" s="20"/>
+      <c r="I375" s="28"/>
     </row>
     <row r="376" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="3"/>
-      <c r="I376" s="4"/>
+      <c r="B376" s="20"/>
+      <c r="I376" s="28"/>
     </row>
     <row r="377" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="3"/>
-      <c r="I377" s="4"/>
+      <c r="B377" s="20"/>
+      <c r="I377" s="28"/>
     </row>
     <row r="378" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="3"/>
-      <c r="I378" s="4"/>
+      <c r="B378" s="20"/>
+      <c r="I378" s="28"/>
     </row>
     <row r="379" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="3"/>
-      <c r="I379" s="4"/>
+      <c r="B379" s="20"/>
+      <c r="I379" s="28"/>
     </row>
     <row r="380" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B380" s="3"/>
-      <c r="I380" s="4"/>
+      <c r="B380" s="20"/>
+      <c r="I380" s="28"/>
     </row>
     <row r="381" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="3"/>
-      <c r="I381" s="4"/>
+      <c r="B381" s="20"/>
+      <c r="I381" s="28"/>
     </row>
     <row r="382" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="3"/>
-      <c r="I382" s="4"/>
+      <c r="B382" s="20"/>
+      <c r="I382" s="28"/>
     </row>
     <row r="383" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="3"/>
-      <c r="I383" s="4"/>
+      <c r="B383" s="20"/>
+      <c r="I383" s="28"/>
     </row>
     <row r="384" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="3"/>
-      <c r="I384" s="4"/>
+      <c r="B384" s="20"/>
+      <c r="I384" s="28"/>
     </row>
     <row r="385" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="3"/>
-      <c r="I385" s="4"/>
+      <c r="B385" s="20"/>
+      <c r="I385" s="28"/>
     </row>
     <row r="386" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="3"/>
-      <c r="I386" s="4"/>
+      <c r="B386" s="20"/>
+      <c r="I386" s="28"/>
     </row>
     <row r="387" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="3"/>
-      <c r="I387" s="4"/>
+      <c r="B387" s="20"/>
+      <c r="I387" s="28"/>
     </row>
     <row r="388" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="3"/>
-      <c r="I388" s="4"/>
+      <c r="B388" s="20"/>
+      <c r="I388" s="28"/>
     </row>
     <row r="389" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="3"/>
-      <c r="I389" s="4"/>
+      <c r="B389" s="20"/>
+      <c r="I389" s="28"/>
     </row>
     <row r="390" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="3"/>
-      <c r="I390" s="4"/>
+      <c r="B390" s="20"/>
+      <c r="I390" s="28"/>
     </row>
     <row r="391" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="3"/>
-      <c r="I391" s="4"/>
+      <c r="B391" s="20"/>
+      <c r="I391" s="28"/>
     </row>
     <row r="392" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="3"/>
-      <c r="I392" s="4"/>
+      <c r="B392" s="20"/>
+      <c r="I392" s="28"/>
     </row>
     <row r="393" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="3"/>
-      <c r="I393" s="4"/>
+      <c r="B393" s="20"/>
+      <c r="I393" s="28"/>
     </row>
     <row r="394" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="3"/>
-      <c r="I394" s="4"/>
+      <c r="B394" s="20"/>
+      <c r="I394" s="28"/>
     </row>
     <row r="395" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="3"/>
-      <c r="I395" s="4"/>
+      <c r="B395" s="20"/>
+      <c r="I395" s="28"/>
     </row>
     <row r="396" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="3"/>
-      <c r="I396" s="4"/>
+      <c r="B396" s="20"/>
+      <c r="I396" s="28"/>
     </row>
     <row r="397" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="3"/>
-      <c r="I397" s="4"/>
+      <c r="B397" s="20"/>
+      <c r="I397" s="28"/>
     </row>
     <row r="398" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="3"/>
-      <c r="I398" s="4"/>
+      <c r="B398" s="20"/>
+      <c r="I398" s="28"/>
     </row>
     <row r="399" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="3"/>
-      <c r="I399" s="4"/>
+      <c r="B399" s="20"/>
+      <c r="I399" s="28"/>
     </row>
     <row r="400" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="3"/>
-      <c r="I400" s="4"/>
+      <c r="B400" s="20"/>
+      <c r="I400" s="28"/>
     </row>
     <row r="401" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="3"/>
-      <c r="I401" s="4"/>
+      <c r="B401" s="20"/>
+      <c r="I401" s="28"/>
     </row>
     <row r="402" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="3"/>
-      <c r="I402" s="4"/>
+      <c r="B402" s="20"/>
+      <c r="I402" s="28"/>
     </row>
     <row r="403" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="3"/>
-      <c r="I403" s="4"/>
+      <c r="B403" s="20"/>
+      <c r="I403" s="28"/>
     </row>
     <row r="404" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="3"/>
-      <c r="I404" s="4"/>
+      <c r="B404" s="20"/>
+      <c r="I404" s="28"/>
     </row>
     <row r="405" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="3"/>
-      <c r="I405" s="4"/>
+      <c r="B405" s="20"/>
+      <c r="I405" s="28"/>
     </row>
     <row r="406" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="3"/>
-      <c r="I406" s="4"/>
+      <c r="B406" s="20"/>
+      <c r="I406" s="28"/>
     </row>
     <row r="407" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="3"/>
-      <c r="I407" s="4"/>
+      <c r="B407" s="20"/>
+      <c r="I407" s="28"/>
     </row>
     <row r="408" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="3"/>
-      <c r="I408" s="4"/>
+      <c r="B408" s="20"/>
+      <c r="I408" s="28"/>
     </row>
     <row r="409" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="3"/>
-      <c r="I409" s="4"/>
+      <c r="B409" s="20"/>
+      <c r="I409" s="28"/>
     </row>
     <row r="410" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="3"/>
-      <c r="I410" s="4"/>
+      <c r="B410" s="20"/>
+      <c r="I410" s="28"/>
     </row>
     <row r="411" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="3"/>
-      <c r="I411" s="4"/>
+      <c r="B411" s="20"/>
+      <c r="I411" s="28"/>
     </row>
     <row r="412" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="3"/>
-      <c r="I412" s="4"/>
+      <c r="B412" s="20"/>
+      <c r="I412" s="28"/>
     </row>
     <row r="413" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="3"/>
-      <c r="I413" s="4"/>
+      <c r="B413" s="20"/>
+      <c r="I413" s="28"/>
     </row>
     <row r="414" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="3"/>
-      <c r="I414" s="4"/>
+      <c r="B414" s="20"/>
+      <c r="I414" s="28"/>
     </row>
     <row r="415" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="3"/>
-      <c r="I415" s="4"/>
+      <c r="B415" s="20"/>
+      <c r="I415" s="28"/>
     </row>
     <row r="416" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="3"/>
-      <c r="I416" s="4"/>
+      <c r="B416" s="20"/>
+      <c r="I416" s="28"/>
     </row>
     <row r="417" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="3"/>
-      <c r="I417" s="4"/>
+      <c r="B417" s="20"/>
+      <c r="I417" s="28"/>
     </row>
     <row r="418" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="3"/>
-      <c r="I418" s="4"/>
+      <c r="B418" s="20"/>
+      <c r="I418" s="28"/>
     </row>
     <row r="419" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="3"/>
-      <c r="I419" s="4"/>
+      <c r="B419" s="20"/>
+      <c r="I419" s="28"/>
     </row>
     <row r="420" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="3"/>
-      <c r="I420" s="4"/>
+      <c r="B420" s="20"/>
+      <c r="I420" s="28"/>
     </row>
     <row r="421" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="3"/>
-      <c r="I421" s="4"/>
+      <c r="B421" s="20"/>
+      <c r="I421" s="28"/>
     </row>
     <row r="422" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="3"/>
-      <c r="I422" s="4"/>
+      <c r="B422" s="20"/>
+      <c r="I422" s="28"/>
     </row>
     <row r="423" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="3"/>
-      <c r="I423" s="4"/>
+      <c r="B423" s="20"/>
+      <c r="I423" s="28"/>
     </row>
     <row r="424" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="3"/>
-      <c r="I424" s="4"/>
+      <c r="B424" s="20"/>
+      <c r="I424" s="28"/>
     </row>
     <row r="425" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="3"/>
-      <c r="I425" s="4"/>
+      <c r="B425" s="20"/>
+      <c r="I425" s="28"/>
     </row>
     <row r="426" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="3"/>
-      <c r="I426" s="4"/>
+      <c r="B426" s="20"/>
+      <c r="I426" s="28"/>
     </row>
     <row r="427" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="3"/>
-      <c r="I427" s="4"/>
+      <c r="B427" s="20"/>
+      <c r="I427" s="28"/>
     </row>
     <row r="428" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="3"/>
-      <c r="I428" s="4"/>
+      <c r="B428" s="20"/>
+      <c r="I428" s="28"/>
     </row>
     <row r="429" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="3"/>
-      <c r="I429" s="4"/>
+      <c r="B429" s="20"/>
+      <c r="I429" s="28"/>
     </row>
     <row r="430" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="3"/>
-      <c r="I430" s="4"/>
+      <c r="B430" s="20"/>
+      <c r="I430" s="28"/>
     </row>
     <row r="431" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="3"/>
-      <c r="I431" s="4"/>
+      <c r="B431" s="20"/>
+      <c r="I431" s="28"/>
     </row>
     <row r="432" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="3"/>
-      <c r="I432" s="4"/>
+      <c r="B432" s="20"/>
+      <c r="I432" s="28"/>
     </row>
     <row r="433" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="3"/>
-      <c r="I433" s="4"/>
+      <c r="B433" s="20"/>
+      <c r="I433" s="28"/>
     </row>
     <row r="434" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="3"/>
-      <c r="I434" s="4"/>
+      <c r="B434" s="20"/>
+      <c r="I434" s="28"/>
     </row>
     <row r="435" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="3"/>
-      <c r="I435" s="4"/>
+      <c r="B435" s="20"/>
+      <c r="I435" s="28"/>
     </row>
     <row r="436" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="3"/>
-      <c r="I436" s="4"/>
+      <c r="B436" s="20"/>
+      <c r="I436" s="28"/>
     </row>
     <row r="437" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="3"/>
-      <c r="I437" s="4"/>
+      <c r="B437" s="20"/>
+      <c r="I437" s="28"/>
     </row>
     <row r="438" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="3"/>
-      <c r="I438" s="4"/>
+      <c r="B438" s="20"/>
+      <c r="I438" s="28"/>
     </row>
     <row r="439" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="3"/>
-      <c r="I439" s="4"/>
+      <c r="B439" s="20"/>
+      <c r="I439" s="28"/>
     </row>
     <row r="440" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="3"/>
-      <c r="I440" s="4"/>
+      <c r="B440" s="20"/>
+      <c r="I440" s="28"/>
     </row>
     <row r="441" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="3"/>
-      <c r="I441" s="4"/>
+      <c r="B441" s="20"/>
+      <c r="I441" s="28"/>
     </row>
     <row r="442" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="3"/>
-      <c r="I442" s="4"/>
+      <c r="B442" s="20"/>
+      <c r="I442" s="28"/>
     </row>
     <row r="443" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="3"/>
-      <c r="I443" s="4"/>
+      <c r="B443" s="20"/>
+      <c r="I443" s="28"/>
     </row>
     <row r="444" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="3"/>
-      <c r="I444" s="4"/>
+      <c r="B444" s="20"/>
+      <c r="I444" s="28"/>
     </row>
     <row r="445" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="3"/>
-      <c r="I445" s="4"/>
+      <c r="B445" s="20"/>
+      <c r="I445" s="28"/>
     </row>
     <row r="446" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="3"/>
-      <c r="I446" s="4"/>
+      <c r="B446" s="20"/>
+      <c r="I446" s="28"/>
     </row>
     <row r="447" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="3"/>
-      <c r="I447" s="4"/>
+      <c r="B447" s="20"/>
+      <c r="I447" s="28"/>
     </row>
     <row r="448" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="3"/>
-      <c r="I448" s="4"/>
+      <c r="B448" s="20"/>
+      <c r="I448" s="28"/>
     </row>
     <row r="449" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="3"/>
-      <c r="I449" s="4"/>
+      <c r="B449" s="20"/>
+      <c r="I449" s="28"/>
     </row>
     <row r="450" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="3"/>
-      <c r="I450" s="4"/>
+      <c r="B450" s="20"/>
+      <c r="I450" s="28"/>
     </row>
     <row r="451" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="3"/>
-      <c r="I451" s="4"/>
+      <c r="B451" s="20"/>
+      <c r="I451" s="28"/>
     </row>
     <row r="452" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="3"/>
-      <c r="I452" s="4"/>
+      <c r="B452" s="20"/>
+      <c r="I452" s="28"/>
     </row>
     <row r="453" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="3"/>
-      <c r="I453" s="4"/>
+      <c r="B453" s="20"/>
+      <c r="I453" s="28"/>
     </row>
     <row r="454" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="3"/>
-      <c r="I454" s="4"/>
+      <c r="B454" s="20"/>
+      <c r="I454" s="28"/>
     </row>
     <row r="455" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="3"/>
-      <c r="I455" s="4"/>
+      <c r="B455" s="20"/>
+      <c r="I455" s="28"/>
     </row>
     <row r="456" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="3"/>
-      <c r="I456" s="4"/>
+      <c r="B456" s="20"/>
+      <c r="I456" s="28"/>
     </row>
     <row r="457" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="3"/>
-      <c r="I457" s="4"/>
+      <c r="B457" s="20"/>
+      <c r="I457" s="28"/>
     </row>
     <row r="458" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="3"/>
-      <c r="I458" s="4"/>
+      <c r="B458" s="20"/>
+      <c r="I458" s="28"/>
     </row>
     <row r="459" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="3"/>
-      <c r="I459" s="4"/>
+      <c r="B459" s="20"/>
+      <c r="I459" s="28"/>
     </row>
     <row r="460" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="3"/>
-      <c r="I460" s="4"/>
+      <c r="B460" s="20"/>
+      <c r="I460" s="28"/>
     </row>
     <row r="461" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B461" s="3"/>
-      <c r="I461" s="4"/>
+      <c r="B461" s="20"/>
+      <c r="I461" s="28"/>
     </row>
     <row r="462" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="3"/>
-      <c r="I462" s="4"/>
+      <c r="B462" s="20"/>
+      <c r="I462" s="28"/>
     </row>
     <row r="463" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="3"/>
-      <c r="I463" s="4"/>
+      <c r="B463" s="20"/>
+      <c r="I463" s="28"/>
     </row>
     <row r="464" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B464" s="3"/>
-      <c r="I464" s="4"/>
+      <c r="B464" s="20"/>
+      <c r="I464" s="28"/>
     </row>
     <row r="465" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B465" s="3"/>
-      <c r="I465" s="4"/>
+      <c r="B465" s="20"/>
+      <c r="I465" s="28"/>
     </row>
     <row r="466" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B466" s="3"/>
-      <c r="I466" s="4"/>
+      <c r="B466" s="20"/>
+      <c r="I466" s="28"/>
     </row>
     <row r="467" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B467" s="3"/>
-      <c r="I467" s="4"/>
+      <c r="B467" s="20"/>
+      <c r="I467" s="28"/>
     </row>
     <row r="468" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B468" s="3"/>
-      <c r="I468" s="4"/>
+      <c r="B468" s="20"/>
+      <c r="I468" s="28"/>
     </row>
     <row r="469" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B469" s="3"/>
-      <c r="I469" s="4"/>
+      <c r="B469" s="20"/>
+      <c r="I469" s="28"/>
     </row>
     <row r="470" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B470" s="3"/>
-      <c r="I470" s="4"/>
+      <c r="B470" s="20"/>
+      <c r="I470" s="28"/>
     </row>
     <row r="471" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="3"/>
-      <c r="I471" s="4"/>
+      <c r="B471" s="20"/>
+      <c r="I471" s="28"/>
     </row>
     <row r="472" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="3"/>
-      <c r="I472" s="4"/>
+      <c r="B472" s="20"/>
+      <c r="I472" s="28"/>
     </row>
     <row r="473" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="3"/>
-      <c r="I473" s="4"/>
+      <c r="B473" s="20"/>
+      <c r="I473" s="28"/>
     </row>
     <row r="474" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B474" s="3"/>
-      <c r="I474" s="4"/>
+      <c r="B474" s="20"/>
+      <c r="I474" s="28"/>
     </row>
     <row r="475" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="3"/>
-      <c r="I475" s="4"/>
+      <c r="B475" s="20"/>
+      <c r="I475" s="28"/>
     </row>
     <row r="476" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="3"/>
-      <c r="I476" s="4"/>
+      <c r="B476" s="20"/>
+      <c r="I476" s="28"/>
     </row>
     <row r="477" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B477" s="3"/>
-      <c r="I477" s="4"/>
+      <c r="B477" s="20"/>
+      <c r="I477" s="28"/>
     </row>
     <row r="478" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B478" s="3"/>
-      <c r="I478" s="4"/>
+      <c r="B478" s="20"/>
+      <c r="I478" s="28"/>
     </row>
     <row r="479" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B479" s="3"/>
-      <c r="I479" s="4"/>
+      <c r="B479" s="20"/>
+      <c r="I479" s="28"/>
     </row>
     <row r="480" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B480" s="3"/>
-      <c r="I480" s="4"/>
+      <c r="B480" s="20"/>
+      <c r="I480" s="28"/>
     </row>
     <row r="481" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B481" s="3"/>
-      <c r="I481" s="4"/>
+      <c r="B481" s="20"/>
+      <c r="I481" s="28"/>
     </row>
     <row r="482" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B482" s="3"/>
-      <c r="I482" s="4"/>
+      <c r="B482" s="20"/>
+      <c r="I482" s="28"/>
     </row>
     <row r="483" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B483" s="3"/>
-      <c r="I483" s="4"/>
+      <c r="B483" s="20"/>
+      <c r="I483" s="28"/>
     </row>
     <row r="484" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B484" s="3"/>
-      <c r="I484" s="4"/>
+      <c r="B484" s="20"/>
+      <c r="I484" s="28"/>
     </row>
     <row r="485" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B485" s="3"/>
-      <c r="I485" s="4"/>
+      <c r="B485" s="20"/>
+      <c r="I485" s="28"/>
     </row>
     <row r="486" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B486" s="3"/>
-      <c r="I486" s="4"/>
+      <c r="B486" s="20"/>
+      <c r="I486" s="28"/>
     </row>
     <row r="487" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B487" s="3"/>
-      <c r="I487" s="4"/>
+      <c r="B487" s="20"/>
+      <c r="I487" s="28"/>
     </row>
     <row r="488" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B488" s="3"/>
-      <c r="I488" s="4"/>
+      <c r="B488" s="20"/>
+      <c r="I488" s="28"/>
     </row>
     <row r="489" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="3"/>
-      <c r="I489" s="4"/>
+      <c r="B489" s="20"/>
+      <c r="I489" s="28"/>
     </row>
     <row r="490" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B490" s="3"/>
-      <c r="I490" s="4"/>
+      <c r="B490" s="20"/>
+      <c r="I490" s="28"/>
     </row>
     <row r="491" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B491" s="3"/>
-      <c r="I491" s="4"/>
+      <c r="B491" s="20"/>
+      <c r="I491" s="28"/>
     </row>
     <row r="492" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B492" s="3"/>
-      <c r="I492" s="4"/>
+      <c r="B492" s="20"/>
+      <c r="I492" s="28"/>
     </row>
     <row r="493" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B493" s="3"/>
-      <c r="I493" s="4"/>
+      <c r="B493" s="20"/>
+      <c r="I493" s="28"/>
     </row>
     <row r="494" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B494" s="3"/>
-      <c r="I494" s="4"/>
+      <c r="B494" s="20"/>
+      <c r="I494" s="28"/>
     </row>
     <row r="495" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B495" s="3"/>
-      <c r="I495" s="4"/>
+      <c r="B495" s="20"/>
+      <c r="I495" s="28"/>
     </row>
     <row r="496" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B496" s="3"/>
-      <c r="I496" s="4"/>
+      <c r="B496" s="20"/>
+      <c r="I496" s="28"/>
     </row>
     <row r="497" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B497" s="3"/>
-      <c r="I497" s="4"/>
+      <c r="B497" s="20"/>
+      <c r="I497" s="28"/>
     </row>
     <row r="498" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B498" s="3"/>
-      <c r="I498" s="4"/>
+      <c r="B498" s="20"/>
+      <c r="I498" s="28"/>
     </row>
     <row r="499" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B499" s="3"/>
-      <c r="I499" s="4"/>
+      <c r="B499" s="20"/>
+      <c r="I499" s="28"/>
     </row>
     <row r="500" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B500" s="3"/>
-      <c r="I500" s="4"/>
+      <c r="B500" s="20"/>
+      <c r="I500" s="28"/>
     </row>
     <row r="501" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B501" s="3"/>
-      <c r="I501" s="4"/>
+      <c r="B501" s="20"/>
+      <c r="I501" s="28"/>
     </row>
     <row r="502" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B502" s="3"/>
-      <c r="I502" s="4"/>
+      <c r="B502" s="20"/>
+      <c r="I502" s="28"/>
     </row>
     <row r="503" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B503" s="3"/>
-      <c r="I503" s="4"/>
+      <c r="B503" s="20"/>
+      <c r="I503" s="28"/>
     </row>
     <row r="504" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B504" s="3"/>
-      <c r="I504" s="4"/>
+      <c r="B504" s="20"/>
+      <c r="I504" s="28"/>
     </row>
     <row r="505" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B505" s="3"/>
-      <c r="I505" s="4"/>
+      <c r="B505" s="20"/>
+      <c r="I505" s="28"/>
     </row>
     <row r="506" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B506" s="3"/>
-      <c r="I506" s="4"/>
+      <c r="B506" s="20"/>
+      <c r="I506" s="28"/>
     </row>
     <row r="507" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B507" s="3"/>
-      <c r="I507" s="4"/>
+      <c r="B507" s="20"/>
+      <c r="I507" s="28"/>
     </row>
     <row r="508" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B508" s="3"/>
-      <c r="I508" s="4"/>
+      <c r="B508" s="20"/>
+      <c r="I508" s="28"/>
     </row>
     <row r="509" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B509" s="3"/>
-      <c r="I509" s="4"/>
+      <c r="B509" s="20"/>
+      <c r="I509" s="28"/>
     </row>
     <row r="510" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B510" s="3"/>
-      <c r="I510" s="4"/>
+      <c r="B510" s="20"/>
+      <c r="I510" s="28"/>
     </row>
     <row r="511" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="3"/>
-      <c r="I511" s="4"/>
+      <c r="B511" s="20"/>
+      <c r="I511" s="28"/>
     </row>
     <row r="512" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B512" s="3"/>
-      <c r="I512" s="4"/>
+      <c r="B512" s="20"/>
+      <c r="I512" s="28"/>
     </row>
     <row r="513" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B513" s="3"/>
-      <c r="I513" s="4"/>
+      <c r="B513" s="20"/>
+      <c r="I513" s="28"/>
     </row>
     <row r="514" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B514" s="3"/>
-      <c r="I514" s="4"/>
+      <c r="B514" s="20"/>
+      <c r="I514" s="28"/>
     </row>
     <row r="515" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B515" s="3"/>
-      <c r="I515" s="4"/>
+      <c r="B515" s="20"/>
+      <c r="I515" s="28"/>
     </row>
     <row r="516" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B516" s="3"/>
-      <c r="I516" s="4"/>
+      <c r="B516" s="20"/>
+      <c r="I516" s="28"/>
     </row>
     <row r="517" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B517" s="3"/>
-      <c r="I517" s="4"/>
+      <c r="B517" s="20"/>
+      <c r="I517" s="28"/>
     </row>
     <row r="518" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B518" s="3"/>
-      <c r="I518" s="4"/>
+      <c r="B518" s="20"/>
+      <c r="I518" s="28"/>
     </row>
     <row r="519" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B519" s="3"/>
-      <c r="I519" s="4"/>
+      <c r="B519" s="20"/>
+      <c r="I519" s="28"/>
     </row>
     <row r="520" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B520" s="3"/>
-      <c r="I520" s="4"/>
+      <c r="B520" s="20"/>
+      <c r="I520" s="28"/>
     </row>
     <row r="521" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B521" s="3"/>
-      <c r="I521" s="4"/>
+      <c r="B521" s="20"/>
+      <c r="I521" s="28"/>
     </row>
     <row r="522" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B522" s="3"/>
-      <c r="I522" s="4"/>
+      <c r="B522" s="20"/>
+      <c r="I522" s="28"/>
     </row>
     <row r="523" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B523" s="3"/>
-      <c r="I523" s="4"/>
+      <c r="B523" s="20"/>
+      <c r="I523" s="28"/>
     </row>
     <row r="524" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B524" s="3"/>
-      <c r="I524" s="4"/>
+      <c r="B524" s="20"/>
+      <c r="I524" s="28"/>
     </row>
     <row r="525" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B525" s="3"/>
-      <c r="I525" s="4"/>
+      <c r="B525" s="20"/>
+      <c r="I525" s="28"/>
     </row>
     <row r="526" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B526" s="3"/>
-      <c r="I526" s="4"/>
+      <c r="B526" s="20"/>
+      <c r="I526" s="28"/>
     </row>
     <row r="527" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B527" s="3"/>
-      <c r="I527" s="4"/>
+      <c r="B527" s="20"/>
+      <c r="I527" s="28"/>
     </row>
     <row r="528" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B528" s="3"/>
-      <c r="I528" s="4"/>
+      <c r="B528" s="20"/>
+      <c r="I528" s="28"/>
     </row>
     <row r="529" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B529" s="3"/>
-      <c r="I529" s="4"/>
+      <c r="B529" s="20"/>
+      <c r="I529" s="28"/>
     </row>
     <row r="530" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B530" s="3"/>
-      <c r="I530" s="4"/>
+      <c r="B530" s="20"/>
+      <c r="I530" s="28"/>
     </row>
     <row r="531" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B531" s="3"/>
-      <c r="I531" s="4"/>
+      <c r="B531" s="20"/>
+      <c r="I531" s="28"/>
     </row>
     <row r="532" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B532" s="3"/>
-      <c r="I532" s="4"/>
+      <c r="B532" s="20"/>
+      <c r="I532" s="28"/>
     </row>
     <row r="533" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B533" s="3"/>
-      <c r="I533" s="4"/>
+      <c r="B533" s="20"/>
+      <c r="I533" s="28"/>
     </row>
     <row r="534" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B534" s="3"/>
-      <c r="I534" s="4"/>
+      <c r="B534" s="20"/>
+      <c r="I534" s="28"/>
     </row>
     <row r="535" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B535" s="3"/>
-      <c r="I535" s="4"/>
+      <c r="B535" s="20"/>
+      <c r="I535" s="28"/>
     </row>
     <row r="536" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B536" s="3"/>
-      <c r="I536" s="4"/>
+      <c r="B536" s="20"/>
+      <c r="I536" s="28"/>
     </row>
     <row r="537" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B537" s="3"/>
-      <c r="I537" s="4"/>
+      <c r="B537" s="20"/>
+      <c r="I537" s="28"/>
     </row>
     <row r="538" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B538" s="3"/>
-      <c r="I538" s="4"/>
+      <c r="B538" s="20"/>
+      <c r="I538" s="28"/>
     </row>
     <row r="539" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B539" s="3"/>
-      <c r="I539" s="4"/>
+      <c r="B539" s="20"/>
+      <c r="I539" s="28"/>
     </row>
     <row r="540" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B540" s="3"/>
-      <c r="I540" s="4"/>
+      <c r="B540" s="20"/>
+      <c r="I540" s="28"/>
     </row>
     <row r="541" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B541" s="3"/>
-      <c r="I541" s="4"/>
+      <c r="B541" s="20"/>
+      <c r="I541" s="28"/>
     </row>
     <row r="542" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B542" s="3"/>
-      <c r="I542" s="4"/>
+      <c r="B542" s="20"/>
+      <c r="I542" s="28"/>
     </row>
     <row r="543" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B543" s="3"/>
-      <c r="I543" s="4"/>
+      <c r="B543" s="20"/>
+      <c r="I543" s="28"/>
     </row>
     <row r="544" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B544" s="3"/>
-      <c r="I544" s="4"/>
+      <c r="B544" s="20"/>
+      <c r="I544" s="28"/>
     </row>
     <row r="545" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B545" s="3"/>
-      <c r="I545" s="4"/>
+      <c r="B545" s="20"/>
+      <c r="I545" s="28"/>
     </row>
     <row r="546" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B546" s="3"/>
-      <c r="I546" s="4"/>
+      <c r="B546" s="20"/>
+      <c r="I546" s="28"/>
     </row>
     <row r="547" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B547" s="3"/>
-      <c r="I547" s="4"/>
+      <c r="B547" s="20"/>
+      <c r="I547" s="28"/>
     </row>
     <row r="548" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B548" s="3"/>
-      <c r="I548" s="4"/>
+      <c r="B548" s="20"/>
+      <c r="I548" s="28"/>
     </row>
     <row r="549" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B549" s="3"/>
-      <c r="I549" s="4"/>
+      <c r="B549" s="20"/>
+      <c r="I549" s="28"/>
     </row>
     <row r="550" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B550" s="3"/>
-      <c r="I550" s="4"/>
+      <c r="B550" s="20"/>
+      <c r="I550" s="28"/>
     </row>
     <row r="551" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B551" s="3"/>
-      <c r="I551" s="4"/>
+      <c r="B551" s="20"/>
+      <c r="I551" s="28"/>
     </row>
     <row r="552" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B552" s="3"/>
-      <c r="I552" s="4"/>
+      <c r="B552" s="20"/>
+      <c r="I552" s="28"/>
     </row>
     <row r="553" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B553" s="3"/>
-      <c r="I553" s="4"/>
+      <c r="B553" s="20"/>
+      <c r="I553" s="28"/>
     </row>
     <row r="554" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B554" s="3"/>
-      <c r="I554" s="4"/>
+      <c r="B554" s="20"/>
+      <c r="I554" s="28"/>
     </row>
     <row r="555" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B555" s="3"/>
-      <c r="I555" s="4"/>
+      <c r="B555" s="20"/>
+      <c r="I555" s="28"/>
     </row>
     <row r="556" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B556" s="3"/>
-      <c r="I556" s="4"/>
+      <c r="B556" s="20"/>
+      <c r="I556" s="28"/>
     </row>
     <row r="557" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B557" s="3"/>
-      <c r="I557" s="4"/>
+      <c r="B557" s="20"/>
+      <c r="I557" s="28"/>
     </row>
     <row r="558" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B558" s="3"/>
-      <c r="I558" s="4"/>
+      <c r="B558" s="20"/>
+      <c r="I558" s="28"/>
     </row>
     <row r="559" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B559" s="3"/>
-      <c r="I559" s="4"/>
+      <c r="B559" s="20"/>
+      <c r="I559" s="28"/>
     </row>
     <row r="560" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B560" s="3"/>
-      <c r="I560" s="4"/>
+      <c r="B560" s="20"/>
+      <c r="I560" s="28"/>
     </row>
     <row r="561" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B561" s="3"/>
-      <c r="I561" s="4"/>
+      <c r="B561" s="20"/>
+      <c r="I561" s="28"/>
     </row>
     <row r="562" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B562" s="3"/>
-      <c r="I562" s="4"/>
+      <c r="B562" s="20"/>
+      <c r="I562" s="28"/>
     </row>
     <row r="563" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B563" s="3"/>
-      <c r="I563" s="4"/>
+      <c r="B563" s="20"/>
+      <c r="I563" s="28"/>
     </row>
     <row r="564" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B564" s="3"/>
-      <c r="I564" s="4"/>
+      <c r="B564" s="20"/>
+      <c r="I564" s="28"/>
     </row>
     <row r="565" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B565" s="3"/>
-      <c r="I565" s="4"/>
+      <c r="B565" s="20"/>
+      <c r="I565" s="28"/>
     </row>
     <row r="566" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B566" s="3"/>
-      <c r="I566" s="4"/>
+      <c r="B566" s="20"/>
+      <c r="I566" s="28"/>
     </row>
     <row r="567" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B567" s="3"/>
-      <c r="I567" s="4"/>
+      <c r="B567" s="20"/>
+      <c r="I567" s="28"/>
     </row>
     <row r="568" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="3"/>
-      <c r="I568" s="4"/>
+      <c r="B568" s="20"/>
+      <c r="I568" s="28"/>
     </row>
     <row r="569" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B569" s="3"/>
-      <c r="I569" s="4"/>
+      <c r="B569" s="20"/>
+      <c r="I569" s="28"/>
     </row>
     <row r="570" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B570" s="3"/>
-      <c r="I570" s="4"/>
+      <c r="B570" s="20"/>
+      <c r="I570" s="28"/>
     </row>
     <row r="571" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B571" s="3"/>
-      <c r="I571" s="4"/>
+      <c r="B571" s="20"/>
+      <c r="I571" s="28"/>
     </row>
     <row r="572" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B572" s="3"/>
-      <c r="I572" s="4"/>
+      <c r="B572" s="20"/>
+      <c r="I572" s="28"/>
     </row>
     <row r="573" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="3"/>
-      <c r="I573" s="4"/>
+      <c r="B573" s="20"/>
+      <c r="I573" s="28"/>
     </row>
     <row r="574" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="3"/>
-      <c r="I574" s="4"/>
+      <c r="B574" s="20"/>
+      <c r="I574" s="28"/>
     </row>
     <row r="575" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B575" s="3"/>
-      <c r="I575" s="4"/>
+      <c r="B575" s="20"/>
+      <c r="I575" s="28"/>
     </row>
     <row r="576" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B576" s="3"/>
-      <c r="I576" s="4"/>
+      <c r="B576" s="20"/>
+      <c r="I576" s="28"/>
     </row>
     <row r="577" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B577" s="3"/>
-      <c r="I577" s="4"/>
+      <c r="B577" s="20"/>
+      <c r="I577" s="28"/>
     </row>
     <row r="578" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B578" s="3"/>
-      <c r="I578" s="4"/>
+      <c r="B578" s="20"/>
+      <c r="I578" s="28"/>
     </row>
     <row r="579" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B579" s="3"/>
-      <c r="I579" s="4"/>
+      <c r="B579" s="20"/>
+      <c r="I579" s="28"/>
     </row>
     <row r="580" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B580" s="3"/>
-      <c r="I580" s="4"/>
+      <c r="B580" s="20"/>
+      <c r="I580" s="28"/>
     </row>
     <row r="581" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B581" s="3"/>
-      <c r="I581" s="4"/>
+      <c r="B581" s="20"/>
+      <c r="I581" s="28"/>
     </row>
     <row r="582" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B582" s="3"/>
-      <c r="I582" s="4"/>
+      <c r="B582" s="20"/>
+      <c r="I582" s="28"/>
     </row>
     <row r="583" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B583" s="3"/>
-      <c r="I583" s="4"/>
+      <c r="B583" s="20"/>
+      <c r="I583" s="28"/>
     </row>
     <row r="584" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B584" s="3"/>
-      <c r="I584" s="4"/>
+      <c r="B584" s="20"/>
+      <c r="I584" s="28"/>
     </row>
     <row r="585" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B585" s="3"/>
-      <c r="I585" s="4"/>
+      <c r="B585" s="20"/>
+      <c r="I585" s="28"/>
     </row>
     <row r="586" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B586" s="3"/>
-      <c r="I586" s="4"/>
+      <c r="B586" s="20"/>
+      <c r="I586" s="28"/>
     </row>
     <row r="587" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B587" s="3"/>
-      <c r="I587" s="4"/>
+      <c r="B587" s="20"/>
+      <c r="I587" s="28"/>
     </row>
     <row r="588" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B588" s="3"/>
-      <c r="I588" s="4"/>
+      <c r="B588" s="20"/>
+      <c r="I588" s="28"/>
     </row>
     <row r="589" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B589" s="3"/>
-      <c r="I589" s="4"/>
+      <c r="B589" s="20"/>
+      <c r="I589" s="28"/>
     </row>
     <row r="590" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B590" s="3"/>
-      <c r="I590" s="4"/>
+      <c r="B590" s="20"/>
+      <c r="I590" s="28"/>
     </row>
     <row r="591" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B591" s="3"/>
-      <c r="I591" s="4"/>
+      <c r="B591" s="20"/>
+      <c r="I591" s="28"/>
     </row>
     <row r="592" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B592" s="3"/>
-      <c r="I592" s="4"/>
+      <c r="B592" s="20"/>
+      <c r="I592" s="28"/>
     </row>
     <row r="593" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B593" s="3"/>
-      <c r="I593" s="4"/>
+      <c r="B593" s="20"/>
+      <c r="I593" s="28"/>
     </row>
     <row r="594" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B594" s="3"/>
-      <c r="I594" s="4"/>
+      <c r="B594" s="20"/>
+      <c r="I594" s="28"/>
     </row>
     <row r="595" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B595" s="3"/>
-      <c r="I595" s="4"/>
+      <c r="B595" s="20"/>
+      <c r="I595" s="28"/>
     </row>
     <row r="596" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B596" s="3"/>
-      <c r="I596" s="4"/>
+      <c r="B596" s="20"/>
+      <c r="I596" s="28"/>
     </row>
     <row r="597" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B597" s="3"/>
-      <c r="I597" s="4"/>
+      <c r="B597" s="20"/>
+      <c r="I597" s="28"/>
     </row>
     <row r="598" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B598" s="3"/>
-      <c r="I598" s="4"/>
+      <c r="B598" s="20"/>
+      <c r="I598" s="28"/>
     </row>
     <row r="599" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B599" s="3"/>
-      <c r="I599" s="4"/>
+      <c r="B599" s="20"/>
+      <c r="I599" s="28"/>
     </row>
     <row r="600" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B600" s="3"/>
-      <c r="I600" s="4"/>
+      <c r="B600" s="20"/>
+      <c r="I600" s="28"/>
     </row>
     <row r="601" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B601" s="3"/>
-      <c r="I601" s="4"/>
+      <c r="B601" s="20"/>
+      <c r="I601" s="28"/>
     </row>
     <row r="602" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B602" s="3"/>
-      <c r="I602" s="4"/>
+      <c r="B602" s="20"/>
+      <c r="I602" s="28"/>
     </row>
     <row r="603" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B603" s="3"/>
-      <c r="I603" s="4"/>
+      <c r="B603" s="20"/>
+      <c r="I603" s="28"/>
     </row>
     <row r="604" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B604" s="3"/>
-      <c r="I604" s="4"/>
+      <c r="B604" s="20"/>
+      <c r="I604" s="28"/>
     </row>
     <row r="605" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B605" s="3"/>
-      <c r="I605" s="4"/>
+      <c r="B605" s="20"/>
+      <c r="I605" s="28"/>
     </row>
     <row r="606" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B606" s="3"/>
-      <c r="I606" s="4"/>
+      <c r="B606" s="20"/>
+      <c r="I606" s="28"/>
     </row>
     <row r="607" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B607" s="3"/>
-      <c r="I607" s="4"/>
+      <c r="B607" s="20"/>
+      <c r="I607" s="28"/>
     </row>
     <row r="608" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B608" s="3"/>
-      <c r="I608" s="4"/>
+      <c r="B608" s="20"/>
+      <c r="I608" s="28"/>
     </row>
     <row r="609" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B609" s="3"/>
-      <c r="I609" s="4"/>
+      <c r="B609" s="20"/>
+      <c r="I609" s="28"/>
     </row>
     <row r="610" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B610" s="3"/>
-      <c r="I610" s="4"/>
+      <c r="B610" s="20"/>
+      <c r="I610" s="28"/>
     </row>
     <row r="611" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B611" s="3"/>
-      <c r="I611" s="4"/>
+      <c r="B611" s="20"/>
+      <c r="I611" s="28"/>
     </row>
     <row r="612" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="3"/>
-      <c r="I612" s="4"/>
+      <c r="B612" s="20"/>
+      <c r="I612" s="28"/>
     </row>
     <row r="613" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B613" s="3"/>
-      <c r="I613" s="4"/>
+      <c r="B613" s="20"/>
+      <c r="I613" s="28"/>
     </row>
     <row r="614" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B614" s="3"/>
-      <c r="I614" s="4"/>
+      <c r="B614" s="20"/>
+      <c r="I614" s="28"/>
     </row>
     <row r="615" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B615" s="3"/>
-      <c r="I615" s="4"/>
+      <c r="B615" s="20"/>
+      <c r="I615" s="28"/>
     </row>
     <row r="616" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B616" s="3"/>
-      <c r="I616" s="4"/>
+      <c r="B616" s="20"/>
+      <c r="I616" s="28"/>
     </row>
     <row r="617" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B617" s="3"/>
-      <c r="I617" s="4"/>
+      <c r="B617" s="20"/>
+      <c r="I617" s="28"/>
     </row>
     <row r="618" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B618" s="3"/>
-      <c r="I618" s="4"/>
+      <c r="B618" s="20"/>
+      <c r="I618" s="28"/>
     </row>
     <row r="619" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B619" s="3"/>
-      <c r="I619" s="4"/>
+      <c r="B619" s="20"/>
+      <c r="I619" s="28"/>
     </row>
     <row r="620" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B620" s="3"/>
-      <c r="I620" s="4"/>
+      <c r="B620" s="20"/>
+      <c r="I620" s="28"/>
     </row>
     <row r="621" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B621" s="3"/>
-      <c r="I621" s="4"/>
+      <c r="B621" s="20"/>
+      <c r="I621" s="28"/>
     </row>
     <row r="622" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B622" s="3"/>
-      <c r="I622" s="4"/>
+      <c r="B622" s="20"/>
+      <c r="I622" s="28"/>
     </row>
     <row r="623" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B623" s="3"/>
-      <c r="I623" s="4"/>
+      <c r="B623" s="20"/>
+      <c r="I623" s="28"/>
     </row>
     <row r="624" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B624" s="3"/>
-      <c r="I624" s="4"/>
+      <c r="B624" s="20"/>
+      <c r="I624" s="28"/>
     </row>
     <row r="625" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B625" s="3"/>
-      <c r="I625" s="4"/>
+      <c r="B625" s="20"/>
+      <c r="I625" s="28"/>
     </row>
     <row r="626" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B626" s="3"/>
-      <c r="I626" s="4"/>
+      <c r="B626" s="20"/>
+      <c r="I626" s="28"/>
     </row>
     <row r="627" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B627" s="3"/>
-      <c r="I627" s="4"/>
+      <c r="B627" s="20"/>
+      <c r="I627" s="28"/>
     </row>
     <row r="628" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B628" s="3"/>
-      <c r="I628" s="4"/>
+      <c r="B628" s="20"/>
+      <c r="I628" s="28"/>
     </row>
     <row r="629" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B629" s="3"/>
-      <c r="I629" s="4"/>
+      <c r="B629" s="20"/>
+      <c r="I629" s="28"/>
     </row>
     <row r="630" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B630" s="3"/>
-      <c r="I630" s="4"/>
+      <c r="B630" s="20"/>
+      <c r="I630" s="28"/>
     </row>
     <row r="631" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B631" s="3"/>
-      <c r="I631" s="4"/>
+      <c r="B631" s="20"/>
+      <c r="I631" s="28"/>
     </row>
     <row r="632" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B632" s="3"/>
-      <c r="I632" s="4"/>
+      <c r="B632" s="20"/>
+      <c r="I632" s="28"/>
     </row>
     <row r="633" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B633" s="3"/>
-      <c r="I633" s="4"/>
+      <c r="B633" s="20"/>
+      <c r="I633" s="28"/>
     </row>
     <row r="634" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B634" s="3"/>
-      <c r="I634" s="4"/>
+      <c r="B634" s="20"/>
+      <c r="I634" s="28"/>
     </row>
     <row r="635" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B635" s="3"/>
-      <c r="I635" s="4"/>
+      <c r="B635" s="20"/>
+      <c r="I635" s="28"/>
     </row>
     <row r="636" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B636" s="3"/>
-      <c r="I636" s="4"/>
+      <c r="B636" s="20"/>
+      <c r="I636" s="28"/>
     </row>
     <row r="637" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B637" s="3"/>
-      <c r="I637" s="4"/>
+      <c r="B637" s="20"/>
+      <c r="I637" s="28"/>
     </row>
     <row r="638" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B638" s="3"/>
-      <c r="I638" s="4"/>
+      <c r="B638" s="20"/>
+      <c r="I638" s="28"/>
     </row>
     <row r="639" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B639" s="3"/>
-      <c r="I639" s="4"/>
+      <c r="B639" s="20"/>
+      <c r="I639" s="28"/>
     </row>
     <row r="640" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B640" s="3"/>
-      <c r="I640" s="4"/>
+      <c r="B640" s="20"/>
+      <c r="I640" s="28"/>
     </row>
     <row r="641" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B641" s="3"/>
-      <c r="I641" s="4"/>
+      <c r="B641" s="20"/>
+      <c r="I641" s="28"/>
     </row>
     <row r="642" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B642" s="3"/>
-      <c r="I642" s="4"/>
+      <c r="B642" s="20"/>
+      <c r="I642" s="28"/>
     </row>
     <row r="643" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B643" s="3"/>
-      <c r="I643" s="4"/>
+      <c r="B643" s="20"/>
+      <c r="I643" s="28"/>
     </row>
     <row r="644" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B644" s="3"/>
-      <c r="I644" s="4"/>
+      <c r="B644" s="20"/>
+      <c r="I644" s="28"/>
     </row>
     <row r="645" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B645" s="3"/>
-      <c r="I645" s="4"/>
+      <c r="B645" s="20"/>
+      <c r="I645" s="28"/>
     </row>
     <row r="646" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B646" s="3"/>
-      <c r="I646" s="4"/>
+      <c r="B646" s="20"/>
+      <c r="I646" s="28"/>
     </row>
     <row r="647" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B647" s="3"/>
-      <c r="I647" s="4"/>
+      <c r="B647" s="20"/>
+      <c r="I647" s="28"/>
     </row>
     <row r="648" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B648" s="3"/>
-      <c r="I648" s="4"/>
+      <c r="B648" s="20"/>
+      <c r="I648" s="28"/>
     </row>
     <row r="649" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B649" s="3"/>
-      <c r="I649" s="4"/>
+      <c r="B649" s="20"/>
+      <c r="I649" s="28"/>
     </row>
     <row r="650" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B650" s="3"/>
-      <c r="I650" s="4"/>
+      <c r="B650" s="20"/>
+      <c r="I650" s="28"/>
     </row>
     <row r="651" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B651" s="3"/>
-      <c r="I651" s="4"/>
+      <c r="B651" s="20"/>
+      <c r="I651" s="28"/>
     </row>
     <row r="652" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B652" s="3"/>
-      <c r="I652" s="4"/>
+      <c r="B652" s="20"/>
+      <c r="I652" s="28"/>
     </row>
     <row r="653" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B653" s="3"/>
-      <c r="I653" s="4"/>
+      <c r="B653" s="20"/>
+      <c r="I653" s="28"/>
     </row>
     <row r="654" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B654" s="3"/>
-      <c r="I654" s="4"/>
+      <c r="B654" s="20"/>
+      <c r="I654" s="28"/>
     </row>
     <row r="655" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B655" s="3"/>
-      <c r="I655" s="4"/>
+      <c r="B655" s="20"/>
+      <c r="I655" s="28"/>
     </row>
     <row r="656" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B656" s="3"/>
-      <c r="I656" s="4"/>
+      <c r="B656" s="20"/>
+      <c r="I656" s="28"/>
     </row>
     <row r="657" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B657" s="3"/>
-      <c r="I657" s="4"/>
+      <c r="B657" s="20"/>
+      <c r="I657" s="28"/>
     </row>
     <row r="658" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B658" s="3"/>
-      <c r="I658" s="4"/>
+      <c r="B658" s="20"/>
+      <c r="I658" s="28"/>
     </row>
     <row r="659" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B659" s="3"/>
-      <c r="I659" s="4"/>
+      <c r="B659" s="20"/>
+      <c r="I659" s="28"/>
     </row>
     <row r="660" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B660" s="3"/>
-      <c r="I660" s="4"/>
+      <c r="B660" s="20"/>
+      <c r="I660" s="28"/>
     </row>
     <row r="661" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B661" s="3"/>
-      <c r="I661" s="4"/>
+      <c r="B661" s="20"/>
+      <c r="I661" s="28"/>
     </row>
     <row r="662" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B662" s="3"/>
-      <c r="I662" s="4"/>
+      <c r="B662" s="20"/>
+      <c r="I662" s="28"/>
     </row>
     <row r="663" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B663" s="3"/>
-      <c r="I663" s="4"/>
+      <c r="B663" s="20"/>
+      <c r="I663" s="28"/>
     </row>
     <row r="664" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B664" s="3"/>
-      <c r="I664" s="4"/>
+      <c r="B664" s="20"/>
+      <c r="I664" s="28"/>
     </row>
     <row r="665" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B665" s="3"/>
-      <c r="I665" s="4"/>
+      <c r="B665" s="20"/>
+      <c r="I665" s="28"/>
     </row>
     <row r="666" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B666" s="3"/>
-      <c r="I666" s="4"/>
+      <c r="B666" s="20"/>
+      <c r="I666" s="28"/>
     </row>
     <row r="667" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B667" s="3"/>
-      <c r="I667" s="4"/>
+      <c r="B667" s="20"/>
+      <c r="I667" s="28"/>
     </row>
     <row r="668" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B668" s="3"/>
-      <c r="I668" s="4"/>
+      <c r="B668" s="20"/>
+      <c r="I668" s="28"/>
     </row>
     <row r="669" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B669" s="3"/>
-      <c r="I669" s="4"/>
+      <c r="B669" s="20"/>
+      <c r="I669" s="28"/>
     </row>
     <row r="670" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B670" s="3"/>
-      <c r="I670" s="4"/>
+      <c r="B670" s="20"/>
+      <c r="I670" s="28"/>
     </row>
     <row r="671" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B671" s="3"/>
-      <c r="I671" s="4"/>
+      <c r="B671" s="20"/>
+      <c r="I671" s="28"/>
     </row>
     <row r="672" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B672" s="3"/>
-      <c r="I672" s="4"/>
+      <c r="B672" s="20"/>
+      <c r="I672" s="28"/>
     </row>
     <row r="673" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B673" s="3"/>
-      <c r="I673" s="4"/>
+      <c r="B673" s="20"/>
+      <c r="I673" s="28"/>
     </row>
     <row r="674" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B674" s="3"/>
-      <c r="I674" s="4"/>
+      <c r="B674" s="20"/>
+      <c r="I674" s="28"/>
     </row>
     <row r="675" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B675" s="3"/>
-      <c r="I675" s="4"/>
+      <c r="B675" s="20"/>
+      <c r="I675" s="28"/>
     </row>
     <row r="676" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B676" s="3"/>
-      <c r="I676" s="4"/>
+      <c r="B676" s="20"/>
+      <c r="I676" s="28"/>
     </row>
     <row r="677" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B677" s="3"/>
-      <c r="I677" s="4"/>
+      <c r="B677" s="20"/>
+      <c r="I677" s="28"/>
     </row>
     <row r="678" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B678" s="3"/>
-      <c r="I678" s="4"/>
+      <c r="B678" s="20"/>
+      <c r="I678" s="28"/>
     </row>
     <row r="679" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B679" s="3"/>
-      <c r="I679" s="4"/>
+      <c r="B679" s="20"/>
+      <c r="I679" s="28"/>
     </row>
     <row r="680" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B680" s="3"/>
-      <c r="I680" s="4"/>
+      <c r="B680" s="20"/>
+      <c r="I680" s="28"/>
     </row>
     <row r="681" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B681" s="3"/>
-      <c r="I681" s="4"/>
+      <c r="B681" s="20"/>
+      <c r="I681" s="28"/>
     </row>
     <row r="682" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B682" s="3"/>
-      <c r="I682" s="4"/>
+      <c r="B682" s="20"/>
+      <c r="I682" s="28"/>
     </row>
     <row r="683" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B683" s="3"/>
-      <c r="I683" s="4"/>
+      <c r="B683" s="20"/>
+      <c r="I683" s="28"/>
     </row>
     <row r="684" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B684" s="3"/>
-      <c r="I684" s="4"/>
+      <c r="B684" s="20"/>
+      <c r="I684" s="28"/>
     </row>
     <row r="685" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B685" s="3"/>
-      <c r="I685" s="4"/>
+      <c r="B685" s="20"/>
+      <c r="I685" s="28"/>
     </row>
     <row r="686" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B686" s="3"/>
-      <c r="I686" s="4"/>
+      <c r="B686" s="20"/>
+      <c r="I686" s="28"/>
     </row>
     <row r="687" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B687" s="3"/>
-      <c r="I687" s="4"/>
+      <c r="B687" s="20"/>
+      <c r="I687" s="28"/>
     </row>
     <row r="688" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B688" s="3"/>
-      <c r="I688" s="4"/>
+      <c r="B688" s="20"/>
+      <c r="I688" s="28"/>
     </row>
     <row r="689" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B689" s="3"/>
-      <c r="I689" s="4"/>
+      <c r="B689" s="20"/>
+      <c r="I689" s="28"/>
     </row>
     <row r="690" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B690" s="3"/>
-      <c r="I690" s="4"/>
+      <c r="B690" s="20"/>
+      <c r="I690" s="28"/>
     </row>
     <row r="691" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B691" s="3"/>
-      <c r="I691" s="4"/>
+      <c r="B691" s="20"/>
+      <c r="I691" s="28"/>
     </row>
     <row r="692" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B692" s="3"/>
-      <c r="I692" s="4"/>
+      <c r="B692" s="20"/>
+      <c r="I692" s="28"/>
     </row>
     <row r="693" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B693" s="3"/>
-      <c r="I693" s="4"/>
+      <c r="B693" s="20"/>
+      <c r="I693" s="28"/>
     </row>
     <row r="694" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B694" s="3"/>
-      <c r="I694" s="4"/>
+      <c r="B694" s="20"/>
+      <c r="I694" s="28"/>
     </row>
     <row r="695" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B695" s="3"/>
-      <c r="I695" s="4"/>
+      <c r="B695" s="20"/>
+      <c r="I695" s="28"/>
     </row>
     <row r="696" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B696" s="3"/>
-      <c r="I696" s="4"/>
+      <c r="B696" s="20"/>
+      <c r="I696" s="28"/>
     </row>
     <row r="697" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B697" s="3"/>
-      <c r="I697" s="4"/>
+      <c r="B697" s="20"/>
+      <c r="I697" s="28"/>
     </row>
     <row r="698" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B698" s="3"/>
-      <c r="I698" s="4"/>
+      <c r="B698" s="20"/>
+      <c r="I698" s="28"/>
     </row>
     <row r="699" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B699" s="3"/>
-      <c r="I699" s="4"/>
+      <c r="B699" s="20"/>
+      <c r="I699" s="28"/>
     </row>
     <row r="700" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B700" s="3"/>
-      <c r="I700" s="4"/>
+      <c r="B700" s="20"/>
+      <c r="I700" s="28"/>
     </row>
     <row r="701" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B701" s="3"/>
-      <c r="I701" s="4"/>
+      <c r="B701" s="20"/>
+      <c r="I701" s="28"/>
     </row>
     <row r="702" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B702" s="3"/>
-      <c r="I702" s="4"/>
+      <c r="B702" s="20"/>
+      <c r="I702" s="28"/>
     </row>
     <row r="703" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B703" s="3"/>
-      <c r="I703" s="4"/>
+      <c r="B703" s="20"/>
+      <c r="I703" s="28"/>
     </row>
     <row r="704" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B704" s="3"/>
-      <c r="I704" s="4"/>
+      <c r="B704" s="20"/>
+      <c r="I704" s="28"/>
     </row>
     <row r="705" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B705" s="3"/>
-      <c r="I705" s="4"/>
+      <c r="B705" s="20"/>
+      <c r="I705" s="28"/>
     </row>
     <row r="706" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B706" s="3"/>
-      <c r="I706" s="4"/>
+      <c r="B706" s="20"/>
+      <c r="I706" s="28"/>
     </row>
     <row r="707" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B707" s="3"/>
-      <c r="I707" s="4"/>
+      <c r="B707" s="20"/>
+      <c r="I707" s="28"/>
     </row>
     <row r="708" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B708" s="3"/>
-      <c r="I708" s="4"/>
+      <c r="B708" s="20"/>
+      <c r="I708" s="28"/>
     </row>
     <row r="709" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B709" s="3"/>
-      <c r="I709" s="4"/>
+      <c r="B709" s="20"/>
+      <c r="I709" s="28"/>
     </row>
     <row r="710" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B710" s="3"/>
-      <c r="I710" s="4"/>
+      <c r="B710" s="20"/>
+      <c r="I710" s="28"/>
     </row>
     <row r="711" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B711" s="3"/>
-      <c r="I711" s="4"/>
+      <c r="B711" s="20"/>
+      <c r="I711" s="28"/>
     </row>
     <row r="712" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="3"/>
-      <c r="I712" s="4"/>
+      <c r="B712" s="20"/>
+      <c r="I712" s="28"/>
     </row>
     <row r="713" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B713" s="3"/>
-      <c r="I713" s="4"/>
+      <c r="B713" s="20"/>
+      <c r="I713" s="28"/>
     </row>
     <row r="714" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B714" s="3"/>
-      <c r="I714" s="4"/>
+      <c r="B714" s="20"/>
+      <c r="I714" s="28"/>
     </row>
     <row r="715" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B715" s="3"/>
-      <c r="I715" s="4"/>
+      <c r="B715" s="20"/>
+      <c r="I715" s="28"/>
     </row>
     <row r="716" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B716" s="3"/>
-      <c r="I716" s="4"/>
+      <c r="B716" s="20"/>
+      <c r="I716" s="28"/>
     </row>
     <row r="717" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B717" s="3"/>
-      <c r="I717" s="4"/>
+      <c r="B717" s="20"/>
+      <c r="I717" s="28"/>
     </row>
     <row r="718" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B718" s="3"/>
-      <c r="I718" s="4"/>
+      <c r="B718" s="20"/>
+      <c r="I718" s="28"/>
     </row>
     <row r="719" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B719" s="3"/>
-      <c r="I719" s="4"/>
+      <c r="B719" s="20"/>
+      <c r="I719" s="28"/>
     </row>
     <row r="720" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B720" s="3"/>
-      <c r="I720" s="4"/>
+      <c r="B720" s="20"/>
+      <c r="I720" s="28"/>
     </row>
     <row r="721" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B721" s="3"/>
-      <c r="I721" s="4"/>
+      <c r="B721" s="20"/>
+      <c r="I721" s="28"/>
     </row>
     <row r="722" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B722" s="3"/>
-      <c r="I722" s="4"/>
+      <c r="B722" s="20"/>
+      <c r="I722" s="28"/>
     </row>
     <row r="723" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B723" s="3"/>
-      <c r="I723" s="4"/>
+      <c r="B723" s="20"/>
+      <c r="I723" s="28"/>
     </row>
     <row r="724" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B724" s="3"/>
-      <c r="I724" s="4"/>
+      <c r="B724" s="20"/>
+      <c r="I724" s="28"/>
     </row>
     <row r="725" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B725" s="3"/>
-      <c r="I725" s="4"/>
+      <c r="B725" s="20"/>
+      <c r="I725" s="28"/>
     </row>
     <row r="726" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B726" s="3"/>
-      <c r="I726" s="4"/>
+      <c r="B726" s="20"/>
+      <c r="I726" s="28"/>
     </row>
     <row r="727" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B727" s="3"/>
-      <c r="I727" s="4"/>
+      <c r="B727" s="20"/>
+      <c r="I727" s="28"/>
     </row>
     <row r="728" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B728" s="3"/>
-      <c r="I728" s="4"/>
+      <c r="B728" s="20"/>
+      <c r="I728" s="28"/>
     </row>
     <row r="729" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B729" s="3"/>
-      <c r="I729" s="4"/>
+      <c r="B729" s="20"/>
+      <c r="I729" s="28"/>
     </row>
     <row r="730" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B730" s="3"/>
-      <c r="I730" s="4"/>
+      <c r="B730" s="20"/>
+      <c r="I730" s="28"/>
     </row>
     <row r="731" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B731" s="3"/>
-      <c r="I731" s="4"/>
+      <c r="B731" s="20"/>
+      <c r="I731" s="28"/>
     </row>
     <row r="732" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B732" s="3"/>
-      <c r="I732" s="4"/>
+      <c r="B732" s="20"/>
+      <c r="I732" s="28"/>
     </row>
     <row r="733" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B733" s="3"/>
-      <c r="I733" s="4"/>
+      <c r="B733" s="20"/>
+      <c r="I733" s="28"/>
     </row>
     <row r="734" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B734" s="3"/>
-      <c r="I734" s="4"/>
+      <c r="B734" s="20"/>
+      <c r="I734" s="28"/>
     </row>
     <row r="735" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B735" s="3"/>
-      <c r="I735" s="4"/>
+      <c r="B735" s="20"/>
+      <c r="I735" s="28"/>
     </row>
     <row r="736" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B736" s="3"/>
-      <c r="I736" s="4"/>
+      <c r="B736" s="20"/>
+      <c r="I736" s="28"/>
     </row>
     <row r="737" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B737" s="3"/>
-      <c r="I737" s="4"/>
+      <c r="B737" s="20"/>
+      <c r="I737" s="28"/>
     </row>
     <row r="738" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B738" s="3"/>
-      <c r="I738" s="4"/>
+      <c r="B738" s="20"/>
+      <c r="I738" s="28"/>
     </row>
     <row r="739" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B739" s="3"/>
-      <c r="I739" s="4"/>
+      <c r="B739" s="20"/>
+      <c r="I739" s="28"/>
     </row>
     <row r="740" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B740" s="3"/>
-      <c r="I740" s="4"/>
+      <c r="B740" s="20"/>
+      <c r="I740" s="28"/>
     </row>
     <row r="741" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B741" s="3"/>
-      <c r="I741" s="4"/>
+      <c r="B741" s="20"/>
+      <c r="I741" s="28"/>
     </row>
     <row r="742" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B742" s="3"/>
-      <c r="I742" s="4"/>
+      <c r="B742" s="20"/>
+      <c r="I742" s="28"/>
     </row>
     <row r="743" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B743" s="3"/>
-      <c r="I743" s="4"/>
+      <c r="B743" s="20"/>
+      <c r="I743" s="28"/>
     </row>
     <row r="744" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B744" s="3"/>
-      <c r="I744" s="4"/>
+      <c r="B744" s="20"/>
+      <c r="I744" s="28"/>
     </row>
     <row r="745" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B745" s="3"/>
-      <c r="I745" s="4"/>
+      <c r="B745" s="20"/>
+      <c r="I745" s="28"/>
     </row>
     <row r="746" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B746" s="3"/>
-      <c r="I746" s="4"/>
+      <c r="B746" s="20"/>
+      <c r="I746" s="28"/>
     </row>
     <row r="747" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B747" s="3"/>
-      <c r="I747" s="4"/>
+      <c r="B747" s="20"/>
+      <c r="I747" s="28"/>
     </row>
     <row r="748" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B748" s="3"/>
-      <c r="I748" s="4"/>
+      <c r="B748" s="20"/>
+      <c r="I748" s="28"/>
     </row>
     <row r="749" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B749" s="3"/>
-      <c r="I749" s="4"/>
+      <c r="B749" s="20"/>
+      <c r="I749" s="28"/>
     </row>
     <row r="750" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B750" s="3"/>
-      <c r="I750" s="4"/>
+      <c r="B750" s="20"/>
+      <c r="I750" s="28"/>
     </row>
     <row r="751" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B751" s="3"/>
-      <c r="I751" s="4"/>
+      <c r="B751" s="20"/>
+      <c r="I751" s="28"/>
     </row>
     <row r="752" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B752" s="3"/>
-      <c r="I752" s="4"/>
+      <c r="B752" s="20"/>
+      <c r="I752" s="28"/>
     </row>
     <row r="753" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B753" s="3"/>
-      <c r="I753" s="4"/>
+      <c r="B753" s="20"/>
+      <c r="I753" s="28"/>
     </row>
     <row r="754" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B754" s="3"/>
-      <c r="I754" s="4"/>
+      <c r="B754" s="20"/>
+      <c r="I754" s="28"/>
     </row>
     <row r="755" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B755" s="3"/>
-      <c r="I755" s="4"/>
+      <c r="B755" s="20"/>
+      <c r="I755" s="28"/>
     </row>
     <row r="756" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B756" s="3"/>
-      <c r="I756" s="4"/>
+      <c r="B756" s="20"/>
+      <c r="I756" s="28"/>
     </row>
     <row r="757" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B757" s="3"/>
-      <c r="I757" s="4"/>
+      <c r="B757" s="20"/>
+      <c r="I757" s="28"/>
     </row>
     <row r="758" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B758" s="3"/>
-      <c r="I758" s="4"/>
+      <c r="B758" s="20"/>
+      <c r="I758" s="28"/>
     </row>
     <row r="759" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B759" s="3"/>
-      <c r="I759" s="4"/>
+      <c r="B759" s="20"/>
+      <c r="I759" s="28"/>
     </row>
     <row r="760" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B760" s="3"/>
-      <c r="I760" s="4"/>
+      <c r="B760" s="20"/>
+      <c r="I760" s="28"/>
     </row>
     <row r="761" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B761" s="3"/>
-      <c r="I761" s="4"/>
+      <c r="B761" s="20"/>
+      <c r="I761" s="28"/>
     </row>
     <row r="762" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B762" s="3"/>
-      <c r="I762" s="4"/>
+      <c r="B762" s="20"/>
+      <c r="I762" s="28"/>
     </row>
     <row r="763" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B763" s="3"/>
-      <c r="I763" s="4"/>
+      <c r="B763" s="20"/>
+      <c r="I763" s="28"/>
     </row>
     <row r="764" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B764" s="3"/>
-      <c r="I764" s="4"/>
+      <c r="B764" s="20"/>
+      <c r="I764" s="28"/>
     </row>
     <row r="765" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B765" s="3"/>
-      <c r="I765" s="4"/>
+      <c r="B765" s="20"/>
+      <c r="I765" s="28"/>
     </row>
     <row r="766" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B766" s="3"/>
-      <c r="I766" s="4"/>
+      <c r="B766" s="20"/>
+      <c r="I766" s="28"/>
     </row>
     <row r="767" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B767" s="3"/>
-      <c r="I767" s="4"/>
+      <c r="B767" s="20"/>
+      <c r="I767" s="28"/>
     </row>
     <row r="768" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B768" s="3"/>
-      <c r="I768" s="4"/>
+      <c r="B768" s="20"/>
+      <c r="I768" s="28"/>
     </row>
     <row r="769" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B769" s="3"/>
-      <c r="I769" s="4"/>
+      <c r="B769" s="20"/>
+      <c r="I769" s="28"/>
     </row>
     <row r="770" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B770" s="3"/>
-      <c r="I770" s="4"/>
+      <c r="B770" s="20"/>
+      <c r="I770" s="28"/>
     </row>
     <row r="771" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B771" s="3"/>
-      <c r="I771" s="4"/>
+      <c r="B771" s="20"/>
+      <c r="I771" s="28"/>
     </row>
     <row r="772" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B772" s="3"/>
-      <c r="I772" s="4"/>
+      <c r="B772" s="20"/>
+      <c r="I772" s="28"/>
     </row>
     <row r="773" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B773" s="3"/>
-      <c r="I773" s="4"/>
+      <c r="B773" s="20"/>
+      <c r="I773" s="28"/>
     </row>
     <row r="774" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B774" s="3"/>
-      <c r="I774" s="4"/>
+      <c r="B774" s="20"/>
+      <c r="I774" s="28"/>
     </row>
     <row r="775" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B775" s="3"/>
-      <c r="I775" s="4"/>
+      <c r="B775" s="20"/>
+      <c r="I775" s="28"/>
     </row>
     <row r="776" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B776" s="3"/>
-      <c r="I776" s="4"/>
+      <c r="B776" s="20"/>
+      <c r="I776" s="28"/>
     </row>
     <row r="777" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B777" s="3"/>
-      <c r="I777" s="4"/>
+      <c r="B777" s="20"/>
+      <c r="I777" s="28"/>
     </row>
     <row r="778" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B778" s="3"/>
-      <c r="I778" s="4"/>
+      <c r="B778" s="20"/>
+      <c r="I778" s="28"/>
     </row>
     <row r="779" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B779" s="3"/>
-      <c r="I779" s="4"/>
+      <c r="B779" s="20"/>
+      <c r="I779" s="28"/>
     </row>
     <row r="780" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B780" s="3"/>
-      <c r="I780" s="4"/>
+      <c r="B780" s="20"/>
+      <c r="I780" s="28"/>
     </row>
     <row r="781" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B781" s="3"/>
-      <c r="I781" s="4"/>
+      <c r="B781" s="20"/>
+      <c r="I781" s="28"/>
     </row>
     <row r="782" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B782" s="3"/>
-      <c r="I782" s="4"/>
+      <c r="B782" s="20"/>
+      <c r="I782" s="28"/>
     </row>
     <row r="783" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B783" s="3"/>
-      <c r="I783" s="4"/>
+      <c r="B783" s="20"/>
+      <c r="I783" s="28"/>
     </row>
     <row r="784" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B784" s="3"/>
-      <c r="I784" s="4"/>
+      <c r="B784" s="20"/>
+      <c r="I784" s="28"/>
     </row>
     <row r="785" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B785" s="3"/>
-      <c r="I785" s="4"/>
+      <c r="B785" s="20"/>
+      <c r="I785" s="28"/>
     </row>
     <row r="786" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B786" s="3"/>
-      <c r="I786" s="4"/>
+      <c r="B786" s="20"/>
+      <c r="I786" s="28"/>
     </row>
     <row r="787" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B787" s="3"/>
-      <c r="I787" s="4"/>
+      <c r="B787" s="20"/>
+      <c r="I787" s="28"/>
     </row>
     <row r="788" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B788" s="3"/>
-      <c r="I788" s="4"/>
+      <c r="B788" s="20"/>
+      <c r="I788" s="28"/>
     </row>
     <row r="789" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B789" s="3"/>
-      <c r="I789" s="4"/>
+      <c r="B789" s="20"/>
+      <c r="I789" s="28"/>
     </row>
     <row r="790" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B790" s="3"/>
-      <c r="I790" s="4"/>
+      <c r="B790" s="20"/>
+      <c r="I790" s="28"/>
     </row>
     <row r="791" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B791" s="3"/>
-      <c r="I791" s="4"/>
+      <c r="B791" s="20"/>
+      <c r="I791" s="28"/>
     </row>
     <row r="792" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B792" s="3"/>
-      <c r="I792" s="4"/>
+      <c r="B792" s="20"/>
+      <c r="I792" s="28"/>
     </row>
     <row r="793" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B793" s="3"/>
-      <c r="I793" s="4"/>
+      <c r="B793" s="20"/>
+      <c r="I793" s="28"/>
     </row>
     <row r="794" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B794" s="3"/>
-      <c r="I794" s="4"/>
+      <c r="B794" s="20"/>
+      <c r="I794" s="28"/>
     </row>
     <row r="795" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B795" s="3"/>
-      <c r="I795" s="4"/>
+      <c r="B795" s="20"/>
+      <c r="I795" s="28"/>
     </row>
     <row r="796" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B796" s="3"/>
-      <c r="I796" s="4"/>
+      <c r="B796" s="20"/>
+      <c r="I796" s="28"/>
     </row>
     <row r="797" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B797" s="3"/>
-      <c r="I797" s="4"/>
+      <c r="B797" s="20"/>
+      <c r="I797" s="28"/>
     </row>
     <row r="798" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B798" s="3"/>
-      <c r="I798" s="4"/>
+      <c r="B798" s="20"/>
+      <c r="I798" s="28"/>
     </row>
     <row r="799" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B799" s="3"/>
-      <c r="I799" s="4"/>
+      <c r="B799" s="20"/>
+      <c r="I799" s="28"/>
     </row>
     <row r="800" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B800" s="3"/>
-      <c r="I800" s="4"/>
+      <c r="B800" s="20"/>
+      <c r="I800" s="28"/>
     </row>
     <row r="801" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B801" s="3"/>
-      <c r="I801" s="4"/>
+      <c r="B801" s="20"/>
+      <c r="I801" s="28"/>
     </row>
     <row r="802" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B802" s="3"/>
-      <c r="I802" s="4"/>
+      <c r="B802" s="20"/>
+      <c r="I802" s="28"/>
     </row>
     <row r="803" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B803" s="3"/>
-      <c r="I803" s="4"/>
+      <c r="B803" s="20"/>
+      <c r="I803" s="28"/>
     </row>
     <row r="804" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B804" s="3"/>
-      <c r="I804" s="4"/>
+      <c r="B804" s="20"/>
+      <c r="I804" s="28"/>
     </row>
     <row r="805" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B805" s="3"/>
-      <c r="I805" s="4"/>
+      <c r="B805" s="20"/>
+      <c r="I805" s="28"/>
     </row>
     <row r="806" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B806" s="3"/>
-      <c r="I806" s="4"/>
+      <c r="B806" s="20"/>
+      <c r="I806" s="28"/>
     </row>
     <row r="807" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B807" s="3"/>
-      <c r="I807" s="4"/>
+      <c r="B807" s="20"/>
+      <c r="I807" s="28"/>
     </row>
     <row r="808" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B808" s="3"/>
-      <c r="I808" s="4"/>
+      <c r="B808" s="20"/>
+      <c r="I808" s="28"/>
     </row>
     <row r="809" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B809" s="3"/>
-      <c r="I809" s="4"/>
+      <c r="B809" s="20"/>
+      <c r="I809" s="28"/>
     </row>
     <row r="810" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B810" s="3"/>
-      <c r="I810" s="4"/>
+      <c r="B810" s="20"/>
+      <c r="I810" s="28"/>
     </row>
     <row r="811" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B811" s="3"/>
-      <c r="I811" s="4"/>
+      <c r="B811" s="20"/>
+      <c r="I811" s="28"/>
     </row>
     <row r="812" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B812" s="3"/>
-      <c r="I812" s="4"/>
+      <c r="B812" s="20"/>
+      <c r="I812" s="28"/>
     </row>
     <row r="813" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B813" s="3"/>
-      <c r="I813" s="4"/>
+      <c r="B813" s="20"/>
+      <c r="I813" s="28"/>
     </row>
     <row r="814" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B814" s="3"/>
-      <c r="I814" s="4"/>
+      <c r="B814" s="20"/>
+      <c r="I814" s="28"/>
     </row>
     <row r="815" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B815" s="3"/>
-      <c r="I815" s="4"/>
+      <c r="B815" s="20"/>
+      <c r="I815" s="28"/>
     </row>
     <row r="816" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B816" s="3"/>
-      <c r="I816" s="4"/>
+      <c r="B816" s="20"/>
+      <c r="I816" s="28"/>
     </row>
     <row r="817" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B817" s="3"/>
-      <c r="I817" s="4"/>
+      <c r="B817" s="20"/>
+      <c r="I817" s="28"/>
     </row>
     <row r="818" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B818" s="3"/>
-      <c r="I818" s="4"/>
+      <c r="B818" s="20"/>
+      <c r="I818" s="28"/>
     </row>
     <row r="819" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B819" s="3"/>
-      <c r="I819" s="4"/>
+      <c r="B819" s="20"/>
+      <c r="I819" s="28"/>
     </row>
     <row r="820" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B820" s="3"/>
-      <c r="I820" s="4"/>
+      <c r="B820" s="20"/>
+      <c r="I820" s="28"/>
     </row>
     <row r="821" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B821" s="3"/>
-      <c r="I821" s="4"/>
+      <c r="B821" s="20"/>
+      <c r="I821" s="28"/>
     </row>
     <row r="822" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B822" s="3"/>
-      <c r="I822" s="4"/>
+      <c r="B822" s="20"/>
+      <c r="I822" s="28"/>
     </row>
     <row r="823" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B823" s="3"/>
-      <c r="I823" s="4"/>
+      <c r="B823" s="20"/>
+      <c r="I823" s="28"/>
     </row>
     <row r="824" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B824" s="3"/>
-      <c r="I824" s="4"/>
+      <c r="B824" s="20"/>
+      <c r="I824" s="28"/>
     </row>
     <row r="825" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B825" s="3"/>
-      <c r="I825" s="4"/>
+      <c r="B825" s="20"/>
+      <c r="I825" s="28"/>
     </row>
     <row r="826" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B826" s="3"/>
-      <c r="I826" s="4"/>
+      <c r="B826" s="20"/>
+      <c r="I826" s="28"/>
     </row>
     <row r="827" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B827" s="3"/>
-      <c r="I827" s="4"/>
+      <c r="B827" s="20"/>
+      <c r="I827" s="28"/>
     </row>
     <row r="828" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B828" s="3"/>
-      <c r="I828" s="4"/>
+      <c r="B828" s="20"/>
+      <c r="I828" s="28"/>
     </row>
     <row r="829" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B829" s="3"/>
-      <c r="I829" s="4"/>
+      <c r="B829" s="20"/>
+      <c r="I829" s="28"/>
     </row>
     <row r="830" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B830" s="3"/>
-      <c r="I830" s="4"/>
+      <c r="B830" s="20"/>
+      <c r="I830" s="28"/>
     </row>
     <row r="831" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B831" s="3"/>
-      <c r="I831" s="4"/>
+      <c r="B831" s="20"/>
+      <c r="I831" s="28"/>
     </row>
     <row r="832" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B832" s="3"/>
-      <c r="I832" s="4"/>
+      <c r="B832" s="20"/>
+      <c r="I832" s="28"/>
     </row>
     <row r="833" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B833" s="3"/>
-      <c r="I833" s="4"/>
+      <c r="B833" s="20"/>
+      <c r="I833" s="28"/>
     </row>
     <row r="834" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B834" s="3"/>
-      <c r="I834" s="4"/>
+      <c r="B834" s="20"/>
+      <c r="I834" s="28"/>
     </row>
     <row r="835" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B835" s="3"/>
-      <c r="I835" s="4"/>
+      <c r="B835" s="20"/>
+      <c r="I835" s="28"/>
     </row>
     <row r="836" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B836" s="3"/>
-      <c r="I836" s="4"/>
+      <c r="B836" s="20"/>
+      <c r="I836" s="28"/>
     </row>
     <row r="837" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B837" s="3"/>
-      <c r="I837" s="4"/>
+      <c r="B837" s="20"/>
+      <c r="I837" s="28"/>
     </row>
     <row r="838" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B838" s="3"/>
-      <c r="I838" s="4"/>
+      <c r="B838" s="20"/>
+      <c r="I838" s="28"/>
     </row>
     <row r="839" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B839" s="3"/>
-      <c r="I839" s="4"/>
+      <c r="B839" s="20"/>
+      <c r="I839" s="28"/>
     </row>
     <row r="840" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B840" s="3"/>
-      <c r="I840" s="4"/>
+      <c r="B840" s="20"/>
+      <c r="I840" s="28"/>
     </row>
     <row r="841" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B841" s="3"/>
-      <c r="I841" s="4"/>
+      <c r="B841" s="20"/>
+      <c r="I841" s="28"/>
     </row>
     <row r="842" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B842" s="3"/>
-      <c r="I842" s="4"/>
+      <c r="B842" s="20"/>
+      <c r="I842" s="28"/>
     </row>
     <row r="843" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B843" s="3"/>
-      <c r="I843" s="4"/>
+      <c r="B843" s="20"/>
+      <c r="I843" s="28"/>
     </row>
     <row r="844" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B844" s="3"/>
-      <c r="I844" s="4"/>
+      <c r="B844" s="20"/>
+      <c r="I844" s="28"/>
     </row>
     <row r="845" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B845" s="3"/>
-      <c r="I845" s="4"/>
+      <c r="B845" s="20"/>
+      <c r="I845" s="28"/>
     </row>
     <row r="846" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B846" s="3"/>
-      <c r="I846" s="4"/>
+      <c r="B846" s="20"/>
+      <c r="I846" s="28"/>
     </row>
     <row r="847" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B847" s="3"/>
-      <c r="I847" s="4"/>
+      <c r="B847" s="20"/>
+      <c r="I847" s="28"/>
     </row>
     <row r="848" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B848" s="3"/>
-      <c r="I848" s="4"/>
+      <c r="B848" s="20"/>
+      <c r="I848" s="28"/>
     </row>
     <row r="849" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B849" s="3"/>
-      <c r="I849" s="4"/>
+      <c r="B849" s="20"/>
+      <c r="I849" s="28"/>
     </row>
     <row r="850" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B850" s="3"/>
-      <c r="I850" s="4"/>
+      <c r="B850" s="20"/>
+      <c r="I850" s="28"/>
     </row>
     <row r="851" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B851" s="3"/>
-      <c r="I851" s="4"/>
+      <c r="B851" s="20"/>
+      <c r="I851" s="28"/>
     </row>
     <row r="852" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B852" s="3"/>
-      <c r="I852" s="4"/>
+      <c r="B852" s="20"/>
+      <c r="I852" s="28"/>
     </row>
     <row r="853" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B853" s="3"/>
-      <c r="I853" s="4"/>
+      <c r="B853" s="20"/>
+      <c r="I853" s="28"/>
     </row>
     <row r="854" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B854" s="3"/>
-      <c r="I854" s="4"/>
+      <c r="B854" s="20"/>
+      <c r="I854" s="28"/>
     </row>
     <row r="855" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B855" s="3"/>
-      <c r="I855" s="4"/>
+      <c r="B855" s="20"/>
+      <c r="I855" s="28"/>
     </row>
     <row r="856" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B856" s="3"/>
-      <c r="I856" s="4"/>
+      <c r="B856" s="20"/>
+      <c r="I856" s="28"/>
     </row>
     <row r="857" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B857" s="3"/>
-      <c r="I857" s="4"/>
+      <c r="B857" s="20"/>
+      <c r="I857" s="28"/>
     </row>
     <row r="858" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B858" s="3"/>
-      <c r="I858" s="4"/>
+      <c r="B858" s="20"/>
+      <c r="I858" s="28"/>
     </row>
     <row r="859" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B859" s="3"/>
-      <c r="I859" s="4"/>
+      <c r="B859" s="20"/>
+      <c r="I859" s="28"/>
     </row>
     <row r="860" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B860" s="3"/>
-      <c r="I860" s="4"/>
+      <c r="B860" s="20"/>
+      <c r="I860" s="28"/>
     </row>
     <row r="861" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B861" s="3"/>
-      <c r="I861" s="4"/>
+      <c r="B861" s="20"/>
+      <c r="I861" s="28"/>
     </row>
     <row r="862" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B862" s="3"/>
-      <c r="I862" s="4"/>
+      <c r="B862" s="20"/>
+      <c r="I862" s="28"/>
     </row>
     <row r="863" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B863" s="3"/>
-      <c r="I863" s="4"/>
+      <c r="B863" s="20"/>
+      <c r="I863" s="28"/>
     </row>
     <row r="864" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B864" s="3"/>
-      <c r="I864" s="4"/>
+      <c r="B864" s="20"/>
+      <c r="I864" s="28"/>
     </row>
     <row r="865" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B865" s="3"/>
-      <c r="I865" s="4"/>
+      <c r="B865" s="20"/>
+      <c r="I865" s="28"/>
     </row>
     <row r="866" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B866" s="3"/>
-      <c r="I866" s="4"/>
+      <c r="B866" s="20"/>
+      <c r="I866" s="28"/>
     </row>
     <row r="867" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B867" s="3"/>
-      <c r="I867" s="4"/>
+      <c r="B867" s="20"/>
+      <c r="I867" s="28"/>
     </row>
     <row r="868" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B868" s="3"/>
-      <c r="I868" s="4"/>
+      <c r="B868" s="20"/>
+      <c r="I868" s="28"/>
     </row>
     <row r="869" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B869" s="3"/>
-      <c r="I869" s="4"/>
+      <c r="B869" s="20"/>
+      <c r="I869" s="28"/>
     </row>
     <row r="870" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B870" s="3"/>
-      <c r="I870" s="4"/>
+      <c r="B870" s="20"/>
+      <c r="I870" s="28"/>
     </row>
     <row r="871" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B871" s="3"/>
-      <c r="I871" s="4"/>
+      <c r="B871" s="20"/>
+      <c r="I871" s="28"/>
     </row>
     <row r="872" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B872" s="3"/>
-      <c r="I872" s="4"/>
+      <c r="B872" s="20"/>
+      <c r="I872" s="28"/>
     </row>
     <row r="873" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B873" s="3"/>
-      <c r="I873" s="4"/>
+      <c r="B873" s="20"/>
+      <c r="I873" s="28"/>
     </row>
     <row r="874" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B874" s="3"/>
-      <c r="I874" s="4"/>
+      <c r="B874" s="20"/>
+      <c r="I874" s="28"/>
     </row>
     <row r="875" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B875" s="3"/>
-      <c r="I875" s="4"/>
+      <c r="B875" s="20"/>
+      <c r="I875" s="28"/>
     </row>
     <row r="876" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B876" s="3"/>
-      <c r="I876" s="4"/>
+      <c r="B876" s="20"/>
+      <c r="I876" s="28"/>
     </row>
     <row r="877" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B877" s="3"/>
-      <c r="I877" s="4"/>
+      <c r="B877" s="20"/>
+      <c r="I877" s="28"/>
     </row>
     <row r="878" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B878" s="3"/>
-      <c r="I878" s="4"/>
+      <c r="B878" s="20"/>
+      <c r="I878" s="28"/>
     </row>
     <row r="879" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B879" s="3"/>
-      <c r="I879" s="4"/>
+      <c r="B879" s="20"/>
+      <c r="I879" s="28"/>
     </row>
     <row r="880" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B880" s="3"/>
-      <c r="I880" s="4"/>
+      <c r="B880" s="20"/>
+      <c r="I880" s="28"/>
     </row>
     <row r="881" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B881" s="3"/>
-      <c r="I881" s="4"/>
+      <c r="B881" s="20"/>
+      <c r="I881" s="28"/>
     </row>
     <row r="882" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B882" s="3"/>
-      <c r="I882" s="4"/>
+      <c r="B882" s="20"/>
+      <c r="I882" s="28"/>
     </row>
     <row r="883" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B883" s="3"/>
-      <c r="I883" s="4"/>
+      <c r="B883" s="20"/>
+      <c r="I883" s="28"/>
     </row>
     <row r="884" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B884" s="3"/>
-      <c r="I884" s="4"/>
+      <c r="B884" s="20"/>
+      <c r="I884" s="28"/>
     </row>
     <row r="885" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B885" s="3"/>
-      <c r="I885" s="4"/>
+      <c r="B885" s="20"/>
+      <c r="I885" s="28"/>
     </row>
     <row r="886" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B886" s="3"/>
-      <c r="I886" s="4"/>
+      <c r="B886" s="20"/>
+      <c r="I886" s="28"/>
     </row>
     <row r="887" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="3"/>
-      <c r="I887" s="4"/>
+      <c r="B887" s="20"/>
+      <c r="I887" s="28"/>
     </row>
     <row r="888" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B888" s="3"/>
-      <c r="I888" s="4"/>
+      <c r="B888" s="20"/>
+      <c r="I888" s="28"/>
     </row>
     <row r="889" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B889" s="3"/>
-      <c r="I889" s="4"/>
+      <c r="B889" s="20"/>
+      <c r="I889" s="28"/>
     </row>
     <row r="890" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B890" s="3"/>
-      <c r="I890" s="4"/>
+      <c r="B890" s="20"/>
+      <c r="I890" s="28"/>
     </row>
     <row r="891" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B891" s="3"/>
-      <c r="I891" s="4"/>
+      <c r="B891" s="20"/>
+      <c r="I891" s="28"/>
     </row>
     <row r="892" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B892" s="3"/>
-      <c r="I892" s="4"/>
+      <c r="B892" s="20"/>
+      <c r="I892" s="28"/>
     </row>
     <row r="893" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B893" s="3"/>
-      <c r="I893" s="4"/>
+      <c r="B893" s="20"/>
+      <c r="I893" s="28"/>
     </row>
     <row r="894" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B894" s="3"/>
-      <c r="I894" s="4"/>
+      <c r="B894" s="20"/>
+      <c r="I894" s="28"/>
     </row>
     <row r="895" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B895" s="3"/>
-      <c r="I895" s="4"/>
+      <c r="B895" s="20"/>
+      <c r="I895" s="28"/>
     </row>
     <row r="896" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B896" s="3"/>
-      <c r="I896" s="4"/>
+      <c r="B896" s="20"/>
+      <c r="I896" s="28"/>
     </row>
     <row r="897" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B897" s="3"/>
-      <c r="I897" s="4"/>
+      <c r="B897" s="20"/>
+      <c r="I897" s="28"/>
     </row>
     <row r="898" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B898" s="3"/>
-      <c r="I898" s="4"/>
+      <c r="B898" s="20"/>
+      <c r="I898" s="28"/>
     </row>
     <row r="899" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B899" s="3"/>
-      <c r="I899" s="4"/>
+      <c r="B899" s="20"/>
+      <c r="I899" s="28"/>
     </row>
     <row r="900" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B900" s="3"/>
-      <c r="I900" s="4"/>
+      <c r="B900" s="20"/>
+      <c r="I900" s="28"/>
     </row>
     <row r="901" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B901" s="3"/>
-      <c r="I901" s="4"/>
+      <c r="B901" s="20"/>
+      <c r="I901" s="28"/>
     </row>
     <row r="902" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B902" s="3"/>
-      <c r="I902" s="4"/>
+      <c r="B902" s="20"/>
+      <c r="I902" s="28"/>
     </row>
     <row r="903" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B903" s="3"/>
-      <c r="I903" s="4"/>
+      <c r="B903" s="20"/>
+      <c r="I903" s="28"/>
     </row>
     <row r="904" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B904" s="3"/>
-      <c r="I904" s="4"/>
+      <c r="B904" s="20"/>
+      <c r="I904" s="28"/>
     </row>
     <row r="905" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B905" s="3"/>
-      <c r="I905" s="4"/>
+      <c r="B905" s="20"/>
+      <c r="I905" s="28"/>
     </row>
     <row r="906" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B906" s="3"/>
-      <c r="I906" s="4"/>
+      <c r="B906" s="20"/>
+      <c r="I906" s="28"/>
     </row>
     <row r="907" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B907" s="3"/>
-      <c r="I907" s="4"/>
+      <c r="B907" s="20"/>
+      <c r="I907" s="28"/>
     </row>
     <row r="908" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B908" s="3"/>
-      <c r="I908" s="4"/>
+      <c r="B908" s="20"/>
+      <c r="I908" s="28"/>
     </row>
     <row r="909" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B909" s="3"/>
-      <c r="I909" s="4"/>
+      <c r="B909" s="20"/>
+      <c r="I909" s="28"/>
     </row>
     <row r="910" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B910" s="3"/>
-      <c r="I910" s="4"/>
+      <c r="B910" s="20"/>
+      <c r="I910" s="28"/>
     </row>
     <row r="911" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B911" s="3"/>
-      <c r="I911" s="4"/>
+      <c r="B911" s="20"/>
+      <c r="I911" s="28"/>
     </row>
     <row r="912" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B912" s="3"/>
-      <c r="I912" s="4"/>
+      <c r="B912" s="20"/>
+      <c r="I912" s="28"/>
     </row>
     <row r="913" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B913" s="3"/>
-      <c r="I913" s="4"/>
+      <c r="B913" s="20"/>
+      <c r="I913" s="28"/>
     </row>
     <row r="914" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B914" s="3"/>
-      <c r="I914" s="4"/>
+      <c r="B914" s="20"/>
+      <c r="I914" s="28"/>
     </row>
     <row r="915" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B915" s="3"/>
-      <c r="I915" s="4"/>
+      <c r="B915" s="20"/>
+      <c r="I915" s="28"/>
     </row>
     <row r="916" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B916" s="3"/>
-      <c r="I916" s="4"/>
+      <c r="B916" s="20"/>
+      <c r="I916" s="28"/>
     </row>
     <row r="917" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B917" s="3"/>
-      <c r="I917" s="4"/>
+      <c r="B917" s="20"/>
+      <c r="I917" s="28"/>
     </row>
     <row r="918" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B918" s="3"/>
-      <c r="I918" s="4"/>
+      <c r="B918" s="20"/>
+      <c r="I918" s="28"/>
     </row>
     <row r="919" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B919" s="3"/>
-      <c r="I919" s="4"/>
+      <c r="B919" s="20"/>
+      <c r="I919" s="28"/>
     </row>
     <row r="920" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B920" s="3"/>
-      <c r="I920" s="4"/>
+      <c r="B920" s="20"/>
+      <c r="I920" s="28"/>
     </row>
     <row r="921" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B921" s="3"/>
-      <c r="I921" s="4"/>
+      <c r="B921" s="20"/>
+      <c r="I921" s="28"/>
     </row>
     <row r="922" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B922" s="3"/>
-      <c r="I922" s="4"/>
+      <c r="B922" s="20"/>
+      <c r="I922" s="28"/>
     </row>
     <row r="923" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B923" s="3"/>
-      <c r="I923" s="4"/>
+      <c r="B923" s="20"/>
+      <c r="I923" s="28"/>
     </row>
     <row r="924" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B924" s="3"/>
-      <c r="I924" s="4"/>
+      <c r="B924" s="20"/>
+      <c r="I924" s="28"/>
     </row>
     <row r="925" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B925" s="3"/>
-      <c r="I925" s="4"/>
+      <c r="B925" s="20"/>
+      <c r="I925" s="28"/>
     </row>
     <row r="926" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B926" s="3"/>
-      <c r="I926" s="4"/>
+      <c r="B926" s="20"/>
+      <c r="I926" s="28"/>
     </row>
     <row r="927" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B927" s="3"/>
-      <c r="I927" s="4"/>
+      <c r="B927" s="20"/>
+      <c r="I927" s="28"/>
     </row>
     <row r="928" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B928" s="3"/>
-      <c r="I928" s="4"/>
+      <c r="B928" s="20"/>
+      <c r="I928" s="28"/>
     </row>
     <row r="929" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B929" s="3"/>
-      <c r="I929" s="4"/>
+      <c r="B929" s="20"/>
+      <c r="I929" s="28"/>
     </row>
     <row r="930" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B930" s="3"/>
-      <c r="I930" s="4"/>
+      <c r="B930" s="20"/>
+      <c r="I930" s="28"/>
     </row>
     <row r="931" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B931" s="3"/>
-      <c r="I931" s="4"/>
+      <c r="B931" s="20"/>
+      <c r="I931" s="28"/>
     </row>
     <row r="932" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B932" s="3"/>
-      <c r="I932" s="4"/>
+      <c r="B932" s="20"/>
+      <c r="I932" s="28"/>
     </row>
     <row r="933" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B933" s="3"/>
-      <c r="I933" s="4"/>
+      <c r="B933" s="20"/>
+      <c r="I933" s="28"/>
     </row>
     <row r="934" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B934" s="3"/>
-      <c r="I934" s="4"/>
+      <c r="B934" s="20"/>
+      <c r="I934" s="28"/>
     </row>
     <row r="935" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B935" s="3"/>
-      <c r="I935" s="4"/>
+      <c r="B935" s="20"/>
+      <c r="I935" s="28"/>
     </row>
     <row r="936" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B936" s="3"/>
-      <c r="I936" s="4"/>
+      <c r="B936" s="20"/>
+      <c r="I936" s="28"/>
     </row>
     <row r="937" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B937" s="3"/>
-      <c r="I937" s="4"/>
+      <c r="B937" s="20"/>
+      <c r="I937" s="28"/>
     </row>
     <row r="938" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B938" s="3"/>
-      <c r="I938" s="4"/>
+      <c r="B938" s="20"/>
+      <c r="I938" s="28"/>
     </row>
     <row r="939" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B939" s="3"/>
-      <c r="I939" s="4"/>
+      <c r="B939" s="20"/>
+      <c r="I939" s="28"/>
     </row>
     <row r="940" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B940" s="3"/>
-      <c r="I940" s="4"/>
+      <c r="B940" s="20"/>
+      <c r="I940" s="28"/>
     </row>
     <row r="941" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B941" s="3"/>
-      <c r="I941" s="4"/>
+      <c r="B941" s="20"/>
+      <c r="I941" s="28"/>
     </row>
     <row r="942" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B942" s="3"/>
-      <c r="I942" s="4"/>
+      <c r="B942" s="20"/>
+      <c r="I942" s="28"/>
     </row>
     <row r="943" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B943" s="3"/>
-      <c r="I943" s="4"/>
+      <c r="B943" s="20"/>
+      <c r="I943" s="28"/>
     </row>
     <row r="944" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B944" s="3"/>
-      <c r="I944" s="4"/>
+      <c r="B944" s="20"/>
+      <c r="I944" s="28"/>
     </row>
     <row r="945" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B945" s="3"/>
-      <c r="I945" s="4"/>
+      <c r="B945" s="20"/>
+      <c r="I945" s="28"/>
     </row>
     <row r="946" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B946" s="3"/>
-      <c r="I946" s="4"/>
+      <c r="B946" s="20"/>
+      <c r="I946" s="28"/>
     </row>
     <row r="947" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B947" s="3"/>
-      <c r="I947" s="4"/>
+      <c r="B947" s="20"/>
+      <c r="I947" s="28"/>
     </row>
     <row r="948" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B948" s="3"/>
-      <c r="I948" s="4"/>
+      <c r="B948" s="20"/>
+      <c r="I948" s="28"/>
     </row>
     <row r="949" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B949" s="3"/>
-      <c r="I949" s="4"/>
+      <c r="B949" s="20"/>
+      <c r="I949" s="28"/>
     </row>
     <row r="950" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B950" s="3"/>
-      <c r="I950" s="4"/>
+      <c r="B950" s="20"/>
+      <c r="I950" s="28"/>
     </row>
     <row r="951" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B951" s="3"/>
-      <c r="I951" s="4"/>
+      <c r="B951" s="20"/>
+      <c r="I951" s="28"/>
     </row>
     <row r="952" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B952" s="3"/>
-      <c r="I952" s="4"/>
+      <c r="B952" s="20"/>
+      <c r="I952" s="28"/>
     </row>
     <row r="953" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B953" s="3"/>
-      <c r="I953" s="4"/>
+      <c r="B953" s="20"/>
+      <c r="I953" s="28"/>
     </row>
     <row r="954" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B954" s="3"/>
-      <c r="I954" s="4"/>
+      <c r="B954" s="20"/>
+      <c r="I954" s="28"/>
     </row>
     <row r="955" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B955" s="3"/>
-      <c r="I955" s="4"/>
+      <c r="B955" s="20"/>
+      <c r="I955" s="28"/>
     </row>
     <row r="956" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B956" s="3"/>
-      <c r="I956" s="4"/>
+      <c r="B956" s="20"/>
+      <c r="I956" s="28"/>
     </row>
     <row r="957" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B957" s="3"/>
-      <c r="I957" s="4"/>
+      <c r="B957" s="20"/>
+      <c r="I957" s="28"/>
     </row>
     <row r="958" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B958" s="3"/>
-      <c r="I958" s="4"/>
+      <c r="B958" s="20"/>
+      <c r="I958" s="28"/>
     </row>
     <row r="959" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B959" s="3"/>
-      <c r="I959" s="4"/>
+      <c r="B959" s="20"/>
+      <c r="I959" s="28"/>
     </row>
     <row r="960" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B960" s="3"/>
-      <c r="I960" s="4"/>
+      <c r="B960" s="20"/>
+      <c r="I960" s="28"/>
     </row>
     <row r="961" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B961" s="3"/>
-      <c r="I961" s="4"/>
+      <c r="B961" s="20"/>
+      <c r="I961" s="28"/>
     </row>
     <row r="962" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B962" s="3"/>
-      <c r="I962" s="4"/>
+      <c r="B962" s="20"/>
+      <c r="I962" s="28"/>
     </row>
     <row r="963" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B963" s="3"/>
-      <c r="I963" s="4"/>
+      <c r="B963" s="20"/>
+      <c r="I963" s="28"/>
     </row>
     <row r="964" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B964" s="3"/>
-      <c r="I964" s="4"/>
+      <c r="B964" s="20"/>
+      <c r="I964" s="28"/>
     </row>
     <row r="965" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B965" s="3"/>
-      <c r="I965" s="4"/>
+      <c r="B965" s="20"/>
+      <c r="I965" s="28"/>
     </row>
     <row r="966" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B966" s="3"/>
-      <c r="I966" s="4"/>
+      <c r="B966" s="20"/>
+      <c r="I966" s="28"/>
     </row>
     <row r="967" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B967" s="3"/>
-      <c r="I967" s="4"/>
+      <c r="B967" s="20"/>
+      <c r="I967" s="28"/>
     </row>
     <row r="968" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B968" s="3"/>
-      <c r="I968" s="4"/>
+      <c r="B968" s="20"/>
+      <c r="I968" s="28"/>
     </row>
     <row r="969" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B969" s="3"/>
-      <c r="I969" s="4"/>
+      <c r="B969" s="20"/>
+      <c r="I969" s="28"/>
     </row>
     <row r="970" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B970" s="3"/>
-      <c r="I970" s="4"/>
+      <c r="B970" s="20"/>
+      <c r="I970" s="28"/>
     </row>
     <row r="971" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B971" s="3"/>
-      <c r="I971" s="4"/>
+      <c r="B971" s="20"/>
+      <c r="I971" s="28"/>
     </row>
     <row r="972" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B972" s="3"/>
-      <c r="I972" s="4"/>
+      <c r="B972" s="20"/>
+      <c r="I972" s="28"/>
     </row>
     <row r="973" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B973" s="3"/>
-      <c r="I973" s="4"/>
+      <c r="B973" s="20"/>
+      <c r="I973" s="28"/>
     </row>
     <row r="974" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B974" s="3"/>
-      <c r="I974" s="4"/>
+      <c r="B974" s="20"/>
+      <c r="I974" s="28"/>
     </row>
     <row r="975" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B975" s="3"/>
-      <c r="I975" s="4"/>
+      <c r="B975" s="20"/>
+      <c r="I975" s="28"/>
     </row>
     <row r="976" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B976" s="3"/>
-      <c r="I976" s="4"/>
+      <c r="B976" s="20"/>
+      <c r="I976" s="28"/>
     </row>
     <row r="977" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B977" s="3"/>
-      <c r="I977" s="4"/>
+      <c r="B977" s="20"/>
+      <c r="I977" s="28"/>
     </row>
     <row r="978" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B978" s="3"/>
-      <c r="I978" s="4"/>
+      <c r="B978" s="20"/>
+      <c r="I978" s="28"/>
     </row>
     <row r="979" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B979" s="3"/>
-      <c r="I979" s="4"/>
+      <c r="B979" s="20"/>
+      <c r="I979" s="28"/>
     </row>
     <row r="980" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B980" s="3"/>
-      <c r="I980" s="4"/>
+      <c r="B980" s="20"/>
+      <c r="I980" s="28"/>
     </row>
     <row r="981" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B981" s="3"/>
-      <c r="I981" s="4"/>
+      <c r="B981" s="20"/>
+      <c r="I981" s="28"/>
     </row>
     <row r="982" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B982" s="3"/>
-      <c r="I982" s="4"/>
+      <c r="B982" s="20"/>
+      <c r="I982" s="28"/>
     </row>
     <row r="983" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B983" s="3"/>
-      <c r="I983" s="4"/>
+      <c r="B983" s="20"/>
+      <c r="I983" s="28"/>
     </row>
     <row r="984" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B984" s="3"/>
-      <c r="I984" s="4"/>
+      <c r="B984" s="20"/>
+      <c r="I984" s="28"/>
     </row>
     <row r="985" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B985" s="3"/>
-      <c r="I985" s="4"/>
+      <c r="B985" s="20"/>
+      <c r="I985" s="28"/>
     </row>
     <row r="986" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B986" s="3"/>
-      <c r="I986" s="4"/>
+      <c r="B986" s="20"/>
+      <c r="I986" s="28"/>
     </row>
     <row r="987" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B987" s="3"/>
-      <c r="I987" s="4"/>
+      <c r="B987" s="20"/>
+      <c r="I987" s="28"/>
     </row>
     <row r="988" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B988" s="3"/>
-      <c r="I988" s="4"/>
+      <c r="B988" s="20"/>
+      <c r="I988" s="28"/>
     </row>
     <row r="989" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B989" s="3"/>
-      <c r="I989" s="4"/>
+      <c r="B989" s="20"/>
+      <c r="I989" s="28"/>
     </row>
     <row r="990" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B990" s="3"/>
-      <c r="I990" s="4"/>
+      <c r="B990" s="20"/>
+      <c r="I990" s="28"/>
     </row>
     <row r="991" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B991" s="3"/>
-      <c r="I991" s="4"/>
+      <c r="B991" s="20"/>
+      <c r="I991" s="28"/>
     </row>
     <row r="992" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B992" s="3"/>
-      <c r="I992" s="4"/>
+      <c r="B992" s="20"/>
+      <c r="I992" s="28"/>
     </row>
     <row r="993" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B993" s="3"/>
-      <c r="I993" s="4"/>
+      <c r="B993" s="20"/>
+      <c r="I993" s="28"/>
     </row>
     <row r="994" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B994" s="3"/>
-      <c r="I994" s="4"/>
+      <c r="B994" s="20"/>
+      <c r="I994" s="28"/>
     </row>
     <row r="995" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B995" s="3"/>
-      <c r="I995" s="4"/>
+      <c r="B995" s="20"/>
+      <c r="I995" s="28"/>
     </row>
     <row r="996" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B996" s="3"/>
-      <c r="I996" s="4"/>
+      <c r="B996" s="20"/>
+      <c r="I996" s="28"/>
     </row>
     <row r="997" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B997" s="3"/>
-      <c r="I997" s="4"/>
+      <c r="B997" s="20"/>
+      <c r="I997" s="28"/>
     </row>
     <row r="998" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B998" s="3"/>
-      <c r="I998" s="4"/>
+      <c r="B998" s="20"/>
+      <c r="I998" s="28"/>
     </row>
     <row r="999" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B999" s="3"/>
-      <c r="I999" s="4"/>
+      <c r="B999" s="20"/>
+      <c r="I999" s="28"/>
     </row>
     <row r="1000" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1000" s="3"/>
-      <c r="I1000" s="4"/>
+      <c r="B1000" s="20"/>
+      <c r="I1000" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20061,7 +20176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -20114,7 +20229,7 @@
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20125,7 +20240,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -20136,7 +20251,7 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -20147,7 +20262,7 @@
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -20158,7 +20273,7 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20169,7 +20284,7 @@
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -20180,7 +20295,7 @@
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20191,7 +20306,7 @@
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -20202,7 +20317,7 @@
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -20213,7 +20328,7 @@
       <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -20224,7 +20339,7 @@
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -20235,7 +20350,7 @@
       <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -20246,7 +20361,7 @@
       <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -20257,7 +20372,7 @@
       <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -20268,7 +20383,7 @@
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -20279,7 +20394,7 @@
       <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -20290,7 +20405,7 @@
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -20301,7 +20416,7 @@
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -20312,7 +20427,7 @@
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -20323,7 +20438,7 @@
       <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -20334,7 +20449,7 @@
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -20345,7 +20460,7 @@
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -20356,7 +20471,7 @@
       <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -20367,7 +20482,7 @@
       <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -20378,7 +20493,7 @@
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -20389,7 +20504,7 @@
       <c r="B27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -20400,7 +20515,7 @@
       <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -20411,7 +20526,7 @@
       <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -20422,7 +20537,7 @@
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20433,7 +20548,7 @@
       <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20444,7 +20559,7 @@
       <c r="B32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -20455,7 +20570,7 @@
       <c r="B33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20466,7 +20581,7 @@
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20477,7 +20592,7 @@
       <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -20488,7 +20603,7 @@
       <c r="B36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -20499,7 +20614,7 @@
       <c r="B37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -20510,7 +20625,7 @@
       <c r="B38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>144</v>
       </c>
     </row>
@@ -20521,7 +20636,7 @@
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -20532,7 +20647,7 @@
       <c r="B40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -20543,7 +20658,7 @@
       <c r="B41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -20554,7 +20669,7 @@
       <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -20565,7 +20680,7 @@
       <c r="B43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>159</v>
       </c>
     </row>
